--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E2868-406B-478E-87F6-789FC2840591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0243B-E526-420A-A63E-7240E3B17329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>title</t>
   </si>
@@ -34,51 +34,6 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Még a rókák is kerülik az Udvarhelyhez közeli üregbe húzódott bocsos anyamedvét</t>
-  </si>
-  <si>
-    <t>Elpusztult az Újszékely határában elgázolt medvebocs</t>
-  </si>
-  <si>
-    <t>Újabb bocsot szabadítottak ki az egyik tusnádfürdői szeméttárolóból</t>
-  </si>
-  <si>
-    <t>Élesben a Ro-Alert: medve miatt riasztották a lakosságot</t>
-  </si>
-  <si>
-    <t>Nem élte túl a kőrispataki medvetámadást az áldozat</t>
-  </si>
-  <si>
-    <t>Engedélyezik a kőrispataki férfit halálosan megsebesítő medve kilövését</t>
-  </si>
-  <si>
-    <t>Nyomozás indult a halálos medvetámadás miatt</t>
-  </si>
-  <si>
-    <t>Ha „lecsillapodik” a kőrispataki medve, nem lesz indokolt a kilövése</t>
-  </si>
-  <si>
-    <t>A medvehelyzet visszásságaira hívják fel a figyelmet: minden természetjáró potenciális áldozat</t>
-  </si>
-  <si>
-    <t>Adománygyűjtés a kőrispataki medvetámadásban árván maradt gyerekek életkörülményeinek jobbá tételéért</t>
-  </si>
-  <si>
-    <t>Villanypásztort szereltek a Csíkszeredai Megyei Sürgősségi Kórház köré</t>
-  </si>
-  <si>
-    <t>Nevelőszülőt keresnek a medvetámadás miatt félárván maradt két kiskorú felnevelésére</t>
-  </si>
-  <si>
-    <t>Videó a kőrispataki medvéről és a támadás helyszínéről</t>
-  </si>
-  <si>
-    <t>#Sokamedve</t>
-  </si>
-  <si>
-    <t>Székelyföldi medveradar – térképen összegzik a nagyvad észlelésének helyeit</t>
-  </si>
-  <si>
     <t>Medvetámadások után helyszíni terepszemlét tart a prefektus</t>
   </si>
   <si>
@@ -88,49 +43,31 @@
     <t>Legalább tizenöt medve jár be Székelyudvarhelyre</t>
   </si>
   <si>
-    <t>A későbbiekben is érdemes elkerülni a Székelyudvarhely határában lévő Agyagdomb környékét, hiszen jó eséllyel még az üregében van a veszélyesnek számító bocsos anyamedve. A vadászok a megfelelő időpontot várják az elköltöztetésre.</t>
-  </si>
-  <si>
-    <t>Egyedül bóklászó egyéves medvebocsot gázolt el egy autó péntekre virradóan Újszékely határában. A vadállat az ütközést követően elpusztult – számol be a Hargita megyei önkormányzat sajtóirodája.</t>
-  </si>
-  <si>
-    <t>Ismét medvebiztos szeméttárolóba rekedt egy bocs szerdára virradóan a tusnádfürdői vasútállomás közelében. A vadállatot a Hargita megyei csendőrök szabadították ki, miután az anyamedvét többször is elriasztották a helyszínről. </t>
-  </si>
-  <si>
-    <t>A Ro-Alert riasztórendszeren keresztül figyelmeztették szerdán reggel a hatóságok a sepsiszentgyörgyieket, hogy medve kószál a városban.</t>
-  </si>
-  <si>
-    <t>Rárontott és súlyosan megsebesített egy medve egy kőrispataki férfit a település határában pénteken délben. Az áldozat mentőbe került, de a kórházba szállítás közben életét vesztette.</t>
-  </si>
-  <si>
-    <t>Ha a környezetvédelmi minisztérium megkapja a Hubertus Vadásztársaság kérését, engedélyezik annak a veszélyes medvének a kilövését, amely pénteken halálosan megsebesített egy 35 éves családapát.</t>
-  </si>
-  <si>
-    <t>A rendőrségi vizsgálatok szerint a Kőrispatakon halálos sérüléseket szenvedett férfit nem váratlanul támadta meg egy bocsos medve, az áldozat maga ment a vadállat rejtekhelyéhez, amit meg is dobált. A rendőrség azt is közölte, hogy az áldozat alkoholos befolyásoltság alatt állt.</t>
-  </si>
-  <si>
-    <t>Még várni kell a kőrispataki halálos kimenetelű medvetámadás kapcsán kért kilövési engedély elbírálására. A Hargita Megyei Környezetvédelmi Ügynökség keddi szakvéleményezésében ugyanis türelmi időt kért a minisztériumtól, hogy megfigyelhessék a medve viselkedését.</t>
-  </si>
-  <si>
-    <t>Egyre több lesz a vadkár és az áldozat a háromszéki vadásztársaságok vezetői szerint, ha a hatóságok nem alkalmazzák a törvényt a medvék jelentette veszély elhárítására. Közölték, az elszaporodott ragadozók egyre szokatlanabbul viselkednek, a bukaresti illetékesek pedig gúnyt űznek a lakosok panaszaiból.</t>
-  </si>
-  <si>
-    <t>Két gyerek maradt árván a pénteki kőrispataki medvetámadást követően. Megsegítésükre széleskörű adománygyűjtést szerveztek, hogy megfelelő életkörülményeket lehessen biztosítani számukra.</t>
-  </si>
-  <si>
-    <t>Villanypásztort szereltek fel a Csíkszeredai Megyei Sürgősségi Kórház körül húzódó kerítésre kedden. Az eszköz az intézmény területére korábban több alkalommal behatoló medvéket hivatott távol tartani.</t>
-  </si>
-  <si>
-    <t>A napokban hoz döntést a kőrispataki medvetámadás miatt félárván maradt két kiskorú elhelyezéséről a Hargita Megyei Szociális és Gyermekvédelmi Igazgatóság. </t>
-  </si>
-  <si>
-    <t>Videót készített a kőrispataki medvéről, a barlangjáról és a pénteki medvetámadás helyszínéről a Hubertus Vadásztársaság igazgatója. A felvétel azonban hamar megszakad, ugyanis az állat a köztük lévő mély árkot megkerülve a vadászok felé rohan.</t>
-  </si>
-  <si>
-    <t>Teljesen értelmetlen médiaháborúba fordult a kőrispataki medvetámadás ügye. A tragikus esetet, mint minden medvés hírt Borboly Csaba adta közre a Facebook-oldalán.</t>
-  </si>
-  <si>
-    <t>Az egyre szaporodó medvekárok ihlették meg Csala Dénes adatbloggert, hogy elkészítse a Székelydata oldalán működő medveészlelőt. Egy olyan térkép készül, amelyből majd kiderül, hol van nagy esélyük az embereknek a nagyvaddal való találkozásra.</t>
+    <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
+  </si>
+  <si>
+    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
+  </si>
+  <si>
+    <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
+  </si>
+  <si>
+    <t>Medve támadt egy madarasi juhászra</t>
+  </si>
+  <si>
+    <t>Szürkülettel jövő félelem: hárombocsos medvétől rettegnek a bárdosiak</t>
+  </si>
+  <si>
+    <t>Fáklyával igyekeznek elriasztani a medvét, amíg ki nem lőhetik</t>
+  </si>
+  <si>
+    <t>Továbbállt az agyagdombi medvecsalád</t>
+  </si>
+  <si>
+    <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
+  </si>
+  <si>
+    <t>Gyerekek közeléből kergették el a medvéket</t>
   </si>
   <si>
     <t>Két medvetámadás történt tíz nap alatt Maros megyében. A Szászrégen melletti Idecsen egy pásztorfiút sebesítette meg a nagyvad, a Görgény völgyében pedig két erdészeti szakmunkásra támadott a medve: az egyiknek a combjába harapott bele a medve, majd el akarta vonszolni, a másikat a hátán karmolta meg.</t>
@@ -142,34 +79,64 @@
     <t>Idén már tizenöt olyan medvét azonosított be a Nagy-Küküllő Vadász- és Sporthorgász-egyesület, amelyek bejártak Székelyudvarhelyre, ezért óvatosságra intik a lakókat. Az Agyagdomb közelében lebocsozott nagyvad pedig még jó eséllyel az üregében van.</t>
   </si>
   <si>
+    <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
+  </si>
+  <si>
+    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
+  </si>
+  <si>
+    <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
+  </si>
+  <si>
+    <t>Legeltetés közben támadt egy 52 éves csíkmadarasi juhászra egy medve szerda délután egy esztena közelében.</t>
+  </si>
+  <si>
+    <t>Elkergették, de visszajött a Marosszentannához tartozó Bárdosra egy anyamedve három kis boccsal. A lakók félnek, a vadásztársaság sötétedéskor járőrözik, hogy védje az embereket.</t>
+  </si>
+  <si>
+    <t>A minisztérium illetékeseinek szóbeli ígéretei ellenére nem kapott még kilövési engedélyt a Szentábrahámon garázdálkodó medvére a Hubertus Vadásztársaság.</t>
+  </si>
+  <si>
+    <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
+  </si>
+  <si>
+    <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
+  </si>
+  <si>
+    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
+  </si>
+  <si>
+    <t>Szászrégen</t>
+  </si>
+  <si>
     <t>Székelyudvarhely</t>
   </si>
   <si>
-    <t>Újszékely</t>
+    <t>Szentábrahám</t>
+  </si>
+  <si>
+    <t>['Marosvásárhely', 'Marosvásárhely', 'Koronka', 'Székelybós']</t>
+  </si>
+  <si>
+    <t>['Sepsibükszád', 'Haraly', 'Haraly', 'Sepsibükszád']</t>
+  </si>
+  <si>
+    <t>Csíkmadaras</t>
   </si>
   <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
-    <t>Sepsiszentgyörgy</t>
-  </si>
-  <si>
-    <t>Kőrispatak</t>
-  </si>
-  <si>
-    <t>Csíkszereda</t>
-  </si>
-  <si>
-    <t>Székelyvaja</t>
-  </si>
-  <si>
-    <t>Szászrégen</t>
-  </si>
-  <si>
-    <t>Szentábrahám</t>
-  </si>
-  <si>
-    <t>Idecspatak</t>
+    <t>['Jedd', 'Koronka', 'Székelybós']</t>
+  </si>
+  <si>
+    <t>Sepsibükszád</t>
+  </si>
+  <si>
+    <t>['Tusnádfürdő', 'Szent Anna-tó']</t>
+  </si>
+  <si>
+    <t>Marosszentanna</t>
   </si>
 </sst>
 </file>
@@ -577,15 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="36.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -610,13 +578,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -627,16 +595,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -644,16 +609,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -661,16 +626,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -678,16 +643,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,16 +660,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -712,16 +677,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -729,16 +694,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -780,16 +742,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -797,106 +753,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0243B-E526-420A-A63E-7240E3B17329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54398ECF-C8E4-4630-AA4B-4939F02B3502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>title</t>
   </si>
@@ -34,21 +34,12 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Medvetámadások után helyszíni terepszemlét tart a prefektus</t>
-  </si>
-  <si>
-    <t>Halomra ölte a birkákat a medve</t>
-  </si>
-  <si>
-    <t>Legalább tizenöt medve jár be Székelyudvarhelyre</t>
+    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
   </si>
   <si>
     <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
   </si>
   <si>
-    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
-  </si>
-  <si>
     <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
   </si>
   <si>
@@ -64,27 +55,42 @@
     <t>Továbbállt az agyagdombi medvecsalád</t>
   </si>
   <si>
+    <t>Gyerekek közeléből kergették el a medvéket</t>
+  </si>
+  <si>
+    <t>Turistákra támadt a medve</t>
+  </si>
+  <si>
+    <t>Medve Szentegyháza határában</t>
+  </si>
+  <si>
     <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
   </si>
   <si>
-    <t>Gyerekek közeléből kergették el a medvéket</t>
-  </si>
-  <si>
-    <t>Két medvetámadás történt tíz nap alatt Maros megyében. A Szászrégen melletti Idecsen egy pásztorfiút sebesítette meg a nagyvad, a Görgény völgyében pedig két erdészeti szakmunkásra támadott a medve: az egyiknek a combjába harapott bele a medve, majd el akarta vonszolni, a másikat a hátán karmolta meg.</t>
-  </si>
-  <si>
-    <t>Tizennégy juhot pusztított el, illetve sebesített meg egy medve vasárnapra virradóan Szentábrahámon. A nagyvad már korábban is garázdálkodott a településen, de az illetékes vadásztársaság akkor nem kapott kilövési engedélyt rá.</t>
-  </si>
-  <si>
-    <t>Idén már tizenöt olyan medvét azonosított be a Nagy-Küküllő Vadász- és Sporthorgász-egyesület, amelyek bejártak Székelyudvarhelyre, ezért óvatosságra intik a lakókat. Az Agyagdomb közelében lebocsozott nagyvad pedig még jó eséllyel az üregében van.</t>
+    <t>Túlélte a gázolást a Brassó határában elütött medve</t>
+  </si>
+  <si>
+    <t>Ahol az emberek a medvéket, a medvék pedig egymást kergetik</t>
+  </si>
+  <si>
+    <t>Ha medvével találkozna – tanácsok a csendőrségtől</t>
+  </si>
+  <si>
+    <t>140 medve kilövését hagyják jóvá, Borboly szerint ennek triplájára lenne szükség</t>
+  </si>
+  <si>
+    <t>Hiába adnak le figyelmeztető lövéseket a medve közelében, az csak feláll két lábra és továbbmegy</t>
+  </si>
+  <si>
+    <t>Íme, a vitatéma: megszámolták a medvéket</t>
+  </si>
+  <si>
+    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
   </si>
   <si>
     <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
   </si>
   <si>
-    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
-  </si>
-  <si>
     <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
   </si>
   <si>
@@ -100,43 +106,79 @@
     <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
   </si>
   <si>
+    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
+  </si>
+  <si>
+    <t>Két külföldi turistára támadt a medve szerdán a Fogarasi-havasokban – számol be az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
+  </si>
+  <si>
     <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
   </si>
   <si>
-    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
-  </si>
-  <si>
-    <t>Szászrégen</t>
+    <t>Elgázolt az autó egy medvét az 1-es országúton, Brassó kijáratánál. A sérült medvét a zernyesti rezervátumba szállítják.</t>
+  </si>
+  <si>
+    <t>Az odalátogatóknak meglepetés és élmény, a tusnádfürdőieknek azonban megszokott, mindennapos tény, hogy a városban szinte nagyobb gyakorisággal tűnik fel egy-egy medve, mint más városokban egy kóbor eb. Szombat késő este a fürdővároson átautózva öt medvével is találkoztunk: három nagyobb példánnyal és két boccsal.</t>
+  </si>
+  <si>
+    <t>Egyre többször bukkan fel a barnamedve a Kovászna megyei településeken, utakon. Gyakran a csendőröket riasztják, hogy elzavarják a vadat.</t>
+  </si>
+  <si>
+    <t>Bukarestben tartott közmeghallgatást a környezetvédelmi miniszter július 2-án – az eddig ismert információk szerint a nagyvadak ügyében semmi nem változik: csupán évi 140 medve kilövésére adnak engedélyt, holott ennek triplájára lenne szükség.</t>
+  </si>
+  <si>
+    <t>Aggasztja a Maros megyei polgármestereket, hogy egyre gyakoribbá válnak a megyében a háztáji gazdaságokat érő medvetámadások, és egyre közelebb merészkednek a nagyvadak a lakott településekhez, ezért a prefektus közbenjárását kérik a medvepopuláció ritkításának lehetővé tétele érdekében.</t>
+  </si>
+  <si>
+    <t>Évről évre jelentést tesznek ugyan a védett vadak számáról, de a becslésekből származó hivatalos adatokat még maguk az érintettek is vitatják. A medvepopuláció méretéről annyira eltérően vélekednek, hogy volt, ahonnan két adatot továbbítottak erről a szaktárcának.</t>
+  </si>
+  <si>
+    <t>['Marosvásárhely', 'Marosvásárhely', 'Koronka', 'Székelybós']</t>
+  </si>
+  <si>
+    <t>Szentábrahám</t>
+  </si>
+  <si>
+    <t>['Sepsibükszád', 'Haraly', 'Haraly', 'Sepsibükszád']</t>
+  </si>
+  <si>
+    <t>Csíkmadaras</t>
   </si>
   <si>
     <t>Székelyudvarhely</t>
   </si>
   <si>
-    <t>Szentábrahám</t>
-  </si>
-  <si>
-    <t>['Marosvásárhely', 'Marosvásárhely', 'Koronka', 'Székelybós']</t>
-  </si>
-  <si>
-    <t>['Sepsibükszád', 'Haraly', 'Haraly', 'Sepsibükszád']</t>
-  </si>
-  <si>
-    <t>Csíkmadaras</t>
-  </si>
-  <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
-    <t>['Jedd', 'Koronka', 'Székelybós']</t>
+    <t>Szentegyháza</t>
+  </si>
+  <si>
+    <t>Brassó</t>
+  </si>
+  <si>
+    <t>Kovászna</t>
+  </si>
+  <si>
+    <t>['Dálnok', 'Kálnok', 'Petele']</t>
+  </si>
+  <si>
+    <t>['Marosvásárhely', 'Jedd', 'Koronka', 'Székelybós']</t>
   </si>
   <si>
     <t>Sepsibükszád</t>
   </si>
   <si>
-    <t>['Tusnádfürdő', 'Szent Anna-tó']</t>
-  </si>
-  <si>
-    <t>Marosszentanna</t>
+    <t>Bárdos</t>
+  </si>
+  <si>
+    <t>Fogarasi havasok</t>
+  </si>
+  <si>
+    <t>Bukarest</t>
   </si>
 </sst>
 </file>
@@ -544,16 +586,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="51.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -578,16 +619,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -595,13 +636,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -609,16 +653,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -626,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -643,16 +687,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -660,16 +701,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -677,16 +718,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -694,13 +735,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -708,16 +752,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -725,16 +766,16 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -742,10 +783,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -753,12 +794,85 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
     </row>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54398ECF-C8E4-4630-AA4B-4939F02B3502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A84AD1-3498-4293-9CB5-A30E8D832333}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3690" windowWidth="27900" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>title</t>
   </si>
@@ -34,151 +34,70 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
-  </si>
-  <si>
-    <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
-  </si>
-  <si>
-    <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
-  </si>
-  <si>
-    <t>Medve támadt egy madarasi juhászra</t>
-  </si>
-  <si>
-    <t>Szürkülettel jövő félelem: hárombocsos medvétől rettegnek a bárdosiak</t>
-  </si>
-  <si>
-    <t>Fáklyával igyekeznek elriasztani a medvét, amíg ki nem lőhetik</t>
-  </si>
-  <si>
-    <t>Továbbállt az agyagdombi medvecsalád</t>
-  </si>
-  <si>
-    <t>Gyerekek közeléből kergették el a medvéket</t>
-  </si>
-  <si>
-    <t>Turistákra támadt a medve</t>
-  </si>
-  <si>
     <t>Medve Szentegyháza határában</t>
   </si>
   <si>
-    <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
+    <t>Amikor farkas provokálja a medvéket</t>
+  </si>
+  <si>
+    <t>Medvebocsot kínoztak, eljárás indul ellenük</t>
+  </si>
+  <si>
+    <t>Medvecsalád bukkant fel Csíkszentimre határában</t>
+  </si>
+  <si>
+    <t>Semmi különös, csak a székely eteti a medvét az úton</t>
   </si>
   <si>
     <t>Túlélte a gázolást a Brassó határában elütött medve</t>
   </si>
   <si>
-    <t>Ahol az emberek a medvéket, a medvék pedig egymást kergetik</t>
-  </si>
-  <si>
-    <t>Ha medvével találkozna – tanácsok a csendőrségtől</t>
-  </si>
-  <si>
-    <t>140 medve kilövését hagyják jóvá, Borboly szerint ennek triplájára lenne szükség</t>
-  </si>
-  <si>
-    <t>Hiába adnak le figyelmeztető lövéseket a medve közelében, az csak feláll két lábra és továbbmegy</t>
-  </si>
-  <si>
     <t>Íme, a vitatéma: megszámolták a medvéket</t>
   </si>
   <si>
-    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
-  </si>
-  <si>
-    <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
-  </si>
-  <si>
-    <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
-  </si>
-  <si>
-    <t>Legeltetés közben támadt egy 52 éves csíkmadarasi juhászra egy medve szerda délután egy esztena közelében.</t>
-  </si>
-  <si>
-    <t>Elkergették, de visszajött a Marosszentannához tartozó Bárdosra egy anyamedve három kis boccsal. A lakók félnek, a vadásztársaság sötétedéskor járőrözik, hogy védje az embereket.</t>
-  </si>
-  <si>
-    <t>A minisztérium illetékeseinek szóbeli ígéretei ellenére nem kapott még kilövési engedélyt a Szentábrahámon garázdálkodó medvére a Hubertus Vadásztársaság.</t>
-  </si>
-  <si>
-    <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
-  </si>
-  <si>
-    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
-  </si>
-  <si>
-    <t>Két külföldi turistára támadt a medve szerdán a Fogarasi-havasokban – számol be az Agerpres hírügynökség.</t>
-  </si>
-  <si>
     <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
   </si>
   <si>
-    <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
+    <t>Rendhagyó videófelvételt küldött szerkesztőségünknek egy olvasónk: a Sepsibükszád melletti medvelesnél múlt pénteken készült képsorokon az látható, amint egy fiatal farkas két táplálkozó nagyvadat „cukkol”.</t>
+  </si>
+  <si>
+    <t>Nagy felháborodás övezi azt a videót, amin több férfi egy kétségbeesetten üvöltő medvebocsot kínoz a Brassó megyei Ágostonfalva határában. A Facebookon és a Youtube videomegosztó portálon terjengő felvételen látszik, egy férfi egy üvöltöző medvebocsot tart a kezében. Az állatot egy másik férfi bottal ingereli.</t>
+  </si>
+  <si>
+    <t>Egy hárombocsos anyamedve látogatja napok óta a csíkszentimrei Henter-kúriához közeli falurészt. A helyiek esténként biztonságos távolból, távcsövekkel figyelik a vadak mozgását, noha előfordult, hogy a medvecsalád egészen a 133-as községi útig, az iskola mellé is „elmerészkedett”.</t>
+  </si>
+  <si>
+    <t>Nagy népszerűségnek örvend az a Facebookon közzétett videó, amin egy idős férfi etet egy békésnek tűnő medvét az úton, a háromszéki Ozsdola közelében.</t>
   </si>
   <si>
     <t>Elgázolt az autó egy medvét az 1-es országúton, Brassó kijáratánál. A sérült medvét a zernyesti rezervátumba szállítják.</t>
   </si>
   <si>
-    <t>Az odalátogatóknak meglepetés és élmény, a tusnádfürdőieknek azonban megszokott, mindennapos tény, hogy a városban szinte nagyobb gyakorisággal tűnik fel egy-egy medve, mint más városokban egy kóbor eb. Szombat késő este a fürdővároson átautózva öt medvével is találkoztunk: három nagyobb példánnyal és két boccsal.</t>
-  </si>
-  <si>
-    <t>Egyre többször bukkan fel a barnamedve a Kovászna megyei településeken, utakon. Gyakran a csendőröket riasztják, hogy elzavarják a vadat.</t>
-  </si>
-  <si>
-    <t>Bukarestben tartott közmeghallgatást a környezetvédelmi miniszter július 2-án – az eddig ismert információk szerint a nagyvadak ügyében semmi nem változik: csupán évi 140 medve kilövésére adnak engedélyt, holott ennek triplájára lenne szükség.</t>
-  </si>
-  <si>
-    <t>Aggasztja a Maros megyei polgármestereket, hogy egyre gyakoribbá válnak a megyében a háztáji gazdaságokat érő medvetámadások, és egyre közelebb merészkednek a nagyvadak a lakott településekhez, ezért a prefektus közbenjárását kérik a medvepopuláció ritkításának lehetővé tétele érdekében.</t>
-  </si>
-  <si>
     <t>Évről évre jelentést tesznek ugyan a védett vadak számáról, de a becslésekből származó hivatalos adatokat még maguk az érintettek is vitatják. A medvepopuláció méretéről annyira eltérően vélekednek, hogy volt, ahonnan két adatot továbbítottak erről a szaktárcának.</t>
   </si>
   <si>
-    <t>['Marosvásárhely', 'Marosvásárhely', 'Koronka', 'Székelybós']</t>
-  </si>
-  <si>
-    <t>Szentábrahám</t>
-  </si>
-  <si>
-    <t>['Sepsibükszád', 'Haraly', 'Haraly', 'Sepsibükszád']</t>
-  </si>
-  <si>
-    <t>Csíkmadaras</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely</t>
-  </si>
-  <si>
-    <t>Tusnádfürdő</t>
-  </si>
-  <si>
     <t>Szentegyháza</t>
   </si>
   <si>
+    <t>Sepsibükszád</t>
+  </si>
+  <si>
+    <t>['Brassó', 'Ágostonfalva', 'Brassó', 'Ágostonfalva']</t>
+  </si>
+  <si>
+    <t>Csíkszentimre</t>
+  </si>
+  <si>
+    <t>['Ozsdola', 'Újszékely', 'Ozsdola']</t>
+  </si>
+  <si>
     <t>Brassó</t>
   </si>
   <si>
-    <t>Kovászna</t>
-  </si>
-  <si>
-    <t>['Dálnok', 'Kálnok', 'Petele']</t>
-  </si>
-  <si>
-    <t>['Marosvásárhely', 'Jedd', 'Koronka', 'Székelybós']</t>
-  </si>
-  <si>
-    <t>Sepsibükszád</t>
-  </si>
-  <si>
-    <t>Bárdos</t>
-  </si>
-  <si>
-    <t>Fogarasi havasok</t>
-  </si>
-  <si>
-    <t>Bukarest</t>
+    <t>Ágostonfalva</t>
+  </si>
+  <si>
+    <t>Ozsdola</t>
   </si>
 </sst>
 </file>
@@ -586,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="51.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="38.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,7 +530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -619,16 +538,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -636,16 +555,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -653,16 +572,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -670,13 +589,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -687,13 +606,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -701,16 +623,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -718,162 +640,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\szekelydata\medveterkep\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A84AD1-3498-4293-9CB5-A30E8D832333}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3690" windowWidth="27900" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>title</t>
   </si>
@@ -34,77 +28,116 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Medve Szentegyháza határában</t>
-  </si>
-  <si>
-    <t>Amikor farkas provokálja a medvéket</t>
-  </si>
-  <si>
-    <t>Medvebocsot kínoztak, eljárás indul ellenük</t>
-  </si>
-  <si>
-    <t>Medvecsalád bukkant fel Csíkszentimre határában</t>
-  </si>
-  <si>
-    <t>Semmi különös, csak a székely eteti a medvét az úton</t>
-  </si>
-  <si>
-    <t>Túlélte a gázolást a Brassó határában elütött medve</t>
-  </si>
-  <si>
-    <t>Íme, a vitatéma: megszámolták a medvéket</t>
-  </si>
-  <si>
-    <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
-  </si>
-  <si>
-    <t>Rendhagyó videófelvételt küldött szerkesztőségünknek egy olvasónk: a Sepsibükszád melletti medvelesnél múlt pénteken készült képsorokon az látható, amint egy fiatal farkas két táplálkozó nagyvadat „cukkol”.</t>
-  </si>
-  <si>
-    <t>Nagy felháborodás övezi azt a videót, amin több férfi egy kétségbeesetten üvöltő medvebocsot kínoz a Brassó megyei Ágostonfalva határában. A Facebookon és a Youtube videomegosztó portálon terjengő felvételen látszik, egy férfi egy üvöltöző medvebocsot tart a kezében. Az állatot egy másik férfi bottal ingereli.</t>
-  </si>
-  <si>
-    <t>Egy hárombocsos anyamedve látogatja napok óta a csíkszentimrei Henter-kúriához közeli falurészt. A helyiek esténként biztonságos távolból, távcsövekkel figyelik a vadak mozgását, noha előfordult, hogy a medvecsalád egészen a 133-as községi útig, az iskola mellé is „elmerészkedett”.</t>
-  </si>
-  <si>
-    <t>Nagy népszerűségnek örvend az a Facebookon közzétett videó, amin egy idős férfi etet egy békésnek tűnő medvét az úton, a háromszéki Ozsdola közelében.</t>
-  </si>
-  <si>
-    <t>Elgázolt az autó egy medvét az 1-es országúton, Brassó kijáratánál. A sérült medvét a zernyesti rezervátumba szállítják.</t>
-  </si>
-  <si>
-    <t>Évről évre jelentést tesznek ugyan a védett vadak számáról, de a becslésekből származó hivatalos adatokat még maguk az érintettek is vitatják. A medvepopuláció méretéről annyira eltérően vélekednek, hogy volt, ahonnan két adatot továbbítottak erről a szaktárcának.</t>
-  </si>
-  <si>
-    <t>Szentegyháza</t>
-  </si>
-  <si>
-    <t>Sepsibükszád</t>
-  </si>
-  <si>
-    <t>['Brassó', 'Ágostonfalva', 'Brassó', 'Ágostonfalva']</t>
-  </si>
-  <si>
-    <t>Csíkszentimre</t>
-  </si>
-  <si>
-    <t>['Ozsdola', 'Újszékely', 'Ozsdola']</t>
-  </si>
-  <si>
-    <t>Brassó</t>
-  </si>
-  <si>
-    <t>Ágostonfalva</t>
-  </si>
-  <si>
-    <t>Ozsdola</t>
+    <t>Videóra vették, ahogy elhurcolja a megölt tehenet a medve</t>
+  </si>
+  <si>
+    <t>Már a háromszéki prefektusnak is nagyon elege van a medvékből</t>
+  </si>
+  <si>
+    <t>Kútba esett egy medve Bibarcfalván</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely utcáin portyázott a bocsos medve</t>
+  </si>
+  <si>
+    <t>Letörte a csűr ajtaját is a medve a juhokért</t>
+  </si>
+  <si>
+    <t>Medve támadt egy lengyel turistára</t>
+  </si>
+  <si>
+    <t>Amikor négy tehén és három medve néz farkasszemet a zsenge cukorrépáért</t>
+  </si>
+  <si>
+    <t>Hárombocsos anyamedve közelítette meg a csíksomlyói általános iskolát és óvodát</t>
+  </si>
+  <si>
+    <t>Halálra gázoltak egy medvét, majd az úttesten hagyták a tetemet</t>
+  </si>
+  <si>
+    <t>RO-Alert: Csíksomlyón jár a medve</t>
+  </si>
+  <si>
+    <t>Szétverték a medvék a szálloda egy részét</t>
+  </si>
+  <si>
+    <t>Emberre támadt a medve a háromszéki Nagyborosnyón</t>
+  </si>
+  <si>
+    <t>Villanypásztor állja a kukázó medvék útját</t>
+  </si>
+  <si>
+    <t>Három nap leforgása alatt három tehenet öltek meg a medvék Pálpataka határában. A szétszórt tanyai település lakóinak többsége állattartásból él, de a történtek miatt legtöbbjük már nem meri kihajtani a legelőre állatait, félnek az újabb medvetámadásoktól.</t>
+  </si>
+  <si>
+    <t>Napról napra nagyobb gondot jelentenek a medvék Kovászna megyében, a környezetvédelmi minisztérium elsősorban ezt kellene orvosolja. Ez a kérdés a „napelemprogramnál” is fontosabb – nyilatkozta csütörtökön Sebastian Cucu prefektus.</t>
+  </si>
+  <si>
+    <t>Beleesett egy medve a kútba az erdővidéki Bibarcfalván – tájékoztatta portálunkat Kelemen Gellért, az illetékes vadászegyesület munkatársa.</t>
+  </si>
+  <si>
+    <t>Videó is készült arról a bocsos anyamedvéről, amely szombaton éjjel a Szabók utcai felbukkanásától a terelőútig juthatott, majdnem egy kilométeres távot megtéve Székelyudvarhely utcáin. Szakember adott tanácsot, mi a teendő medvével való találkozás esetén.</t>
+  </si>
+  <si>
+    <t>Csűrbe zárta estére a megmaradt jószágait a homoródalmási Mihály Csaba, miután a kertben tartott juhok közül többet is megölt a medve. A nagyvad visszatért, és mint láthatjuk, a csűrkapu sem volt számára akadály.</t>
+  </si>
+  <si>
+    <t>Lengyel turistára támadt egy medve a Radnai-havasokban levő Şetref-hágó (818 méteres magasság) egyik kijelölt turistaösvényén. A férfinak sikerült bemenekülnie egy elhagyatott menedékházba, így nem esett baja.</t>
+  </si>
+  <si>
+    <t>Azt, hogy leggyakrabban miként ér véget a medve és a tehén találkozása, mindenki ismeri a hírekből. Az alábbi, rendhagyó fordulatok által tarkított képtörténet éppen azért érdekes, mert ezúttal nem a megszokott forgatókönyv szerint alakult a cselekmény.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egy hárombocsos anyamedve közelítette meg a Xantus János Általános Iskola csíksomlyói épületét szerda délelőtt, a vadállatokra az udvaron játszó gyerekek lettek figyelmesek. A helyszínre a csendőrség és a tűzoltóság több egysége is kivonult, a medvecsalád azonban időközben továbbállt. Az oktatási intézményn&amp;						</t>
+  </si>
+  <si>
+    <t>Elütöttek és az úton hagytak egy medvét kedden késő este Maros megyében, a Körtvélyfája és Petele közötti gyorsforgalmi úton, Szászrégen közelében. A rendőrség vizsgálódik, a tetem további sorsáról a vadásztársaság dönt.</t>
+  </si>
+  <si>
+    <t>A RO-Alert rendszeren keresztül figyelmeztette a csíkszeredaiakat egy medve jelenlétére Csíksomlyón a Hargita Megyei Vészhelyzeti Felügyelőség.</t>
+  </si>
+  <si>
+    <t>Jelentős kárt okoztak a héten egy bálványosi szállodában a garázdálkodó medvék. A vadak éjszaka betörtek az épületbe, felforgatták a konyhát, összetörtek egy mosodát és a vendéglői bejáratot. A térfigyelő kamerák rögzítették, amint a medvék ki-be járnak az ajtókon.</t>
+  </si>
+  <si>
+    <t>Emberre támadt a medve Nagyborosnyón csütörtökön. Az áldozat súlyos sérülésekkel került kórházba, de nincs életveszélyben – mondta el portálunknak Kanyó Antal, Nagyborosnyó alpolgármestere.</t>
+  </si>
+  <si>
+    <t>Mivel önmagukban nem váltak be, tovább növelték a medvebiztos szeméttárolók hatékonyságát Tusnádfürdőn: villanypásztorral vették körbe ezeket két helyszínen is. A területileg illetékes vadásztársaságnak vannak fenntartásai, az önkormányzat azonban a lehetséges kockázatokra is gondolt.</t>
+  </si>
+  <si>
+    <t>['Pálpatak', 'Pálpataka']</t>
+  </si>
+  <si>
+    <t>Kovászna</t>
+  </si>
+  <si>
+    <t>Bibarcfalva</t>
+  </si>
+  <si>
+    <t>['Szabéd', 'Székelyudvarhely']</t>
+  </si>
+  <si>
+    <t>Homoródalmás</t>
+  </si>
+  <si>
+    <t>Csíksomlyó</t>
+  </si>
+  <si>
+    <t>['Körtvélyfája', 'Kebele', 'Petele', 'Szászrégen']</t>
+  </si>
+  <si>
+    <t>Nagyborosnyó</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,16 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,14 +200,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,23 +487,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="38.7109375" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -530,117 +508,207 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698C89B-AC31-4B17-8823-7A9CB1629357}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>title</t>
   </si>
@@ -28,36 +34,6 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Videóra vették, ahogy elhurcolja a megölt tehenet a medve</t>
-  </si>
-  <si>
-    <t>Már a háromszéki prefektusnak is nagyon elege van a medvékből</t>
-  </si>
-  <si>
-    <t>Kútba esett egy medve Bibarcfalván</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely utcáin portyázott a bocsos medve</t>
-  </si>
-  <si>
-    <t>Letörte a csűr ajtaját is a medve a juhokért</t>
-  </si>
-  <si>
-    <t>Medve támadt egy lengyel turistára</t>
-  </si>
-  <si>
-    <t>Amikor négy tehén és három medve néz farkasszemet a zsenge cukorrépáért</t>
-  </si>
-  <si>
-    <t>Hárombocsos anyamedve közelítette meg a csíksomlyói általános iskolát és óvodát</t>
-  </si>
-  <si>
-    <t>Halálra gázoltak egy medvét, majd az úttesten hagyták a tetemet</t>
-  </si>
-  <si>
-    <t>RO-Alert: Csíksomlyón jár a medve</t>
-  </si>
-  <si>
     <t>Szétverték a medvék a szálloda egy részét</t>
   </si>
   <si>
@@ -67,36 +43,6 @@
     <t>Villanypásztor állja a kukázó medvék útját</t>
   </si>
   <si>
-    <t>Három nap leforgása alatt három tehenet öltek meg a medvék Pálpataka határában. A szétszórt tanyai település lakóinak többsége állattartásból él, de a történtek miatt legtöbbjük már nem meri kihajtani a legelőre állatait, félnek az újabb medvetámadásoktól.</t>
-  </si>
-  <si>
-    <t>Napról napra nagyobb gondot jelentenek a medvék Kovászna megyében, a környezetvédelmi minisztérium elsősorban ezt kellene orvosolja. Ez a kérdés a „napelemprogramnál” is fontosabb – nyilatkozta csütörtökön Sebastian Cucu prefektus.</t>
-  </si>
-  <si>
-    <t>Beleesett egy medve a kútba az erdővidéki Bibarcfalván – tájékoztatta portálunkat Kelemen Gellért, az illetékes vadászegyesület munkatársa.</t>
-  </si>
-  <si>
-    <t>Videó is készült arról a bocsos anyamedvéről, amely szombaton éjjel a Szabók utcai felbukkanásától a terelőútig juthatott, majdnem egy kilométeres távot megtéve Székelyudvarhely utcáin. Szakember adott tanácsot, mi a teendő medvével való találkozás esetén.</t>
-  </si>
-  <si>
-    <t>Csűrbe zárta estére a megmaradt jószágait a homoródalmási Mihály Csaba, miután a kertben tartott juhok közül többet is megölt a medve. A nagyvad visszatért, és mint láthatjuk, a csűrkapu sem volt számára akadály.</t>
-  </si>
-  <si>
-    <t>Lengyel turistára támadt egy medve a Radnai-havasokban levő Şetref-hágó (818 méteres magasság) egyik kijelölt turistaösvényén. A férfinak sikerült bemenekülnie egy elhagyatott menedékházba, így nem esett baja.</t>
-  </si>
-  <si>
-    <t>Azt, hogy leggyakrabban miként ér véget a medve és a tehén találkozása, mindenki ismeri a hírekből. Az alábbi, rendhagyó fordulatok által tarkított képtörténet éppen azért érdekes, mert ezúttal nem a megszokott forgatókönyv szerint alakult a cselekmény.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egy hárombocsos anyamedve közelítette meg a Xantus János Általános Iskola csíksomlyói épületét szerda délelőtt, a vadállatokra az udvaron játszó gyerekek lettek figyelmesek. A helyszínre a csendőrség és a tűzoltóság több egysége is kivonult, a medvecsalád azonban időközben továbbállt. Az oktatási intézményn&amp;						</t>
-  </si>
-  <si>
-    <t>Elütöttek és az úton hagytak egy medvét kedden késő este Maros megyében, a Körtvélyfája és Petele közötti gyorsforgalmi úton, Szászrégen közelében. A rendőrség vizsgálódik, a tetem további sorsáról a vadásztársaság dönt.</t>
-  </si>
-  <si>
-    <t>A RO-Alert rendszeren keresztül figyelmeztette a csíkszeredaiakat egy medve jelenlétére Csíksomlyón a Hargita Megyei Vészhelyzeti Felügyelőség.</t>
-  </si>
-  <si>
     <t>Jelentős kárt okoztak a héten egy bálványosi szállodában a garázdálkodó medvék. A vadak éjszaka betörtek az épületbe, felforgatták a konyhát, összetörtek egy mosodát és a vendéglői bejáratot. A térfigyelő kamerák rögzítették, amint a medvék ki-be járnak az ajtókon.</t>
   </si>
   <si>
@@ -106,38 +52,20 @@
     <t>Mivel önmagukban nem váltak be, tovább növelték a medvebiztos szeméttárolók hatékonyságát Tusnádfürdőn: villanypásztorral vették körbe ezeket két helyszínen is. A területileg illetékes vadásztársaságnak vannak fenntartásai, az önkormányzat azonban a lehetséges kockázatokra is gondolt.</t>
   </si>
   <si>
-    <t>['Pálpatak', 'Pálpataka']</t>
-  </si>
-  <si>
-    <t>Kovászna</t>
-  </si>
-  <si>
-    <t>Bibarcfalva</t>
-  </si>
-  <si>
-    <t>['Szabéd', 'Székelyudvarhely']</t>
-  </si>
-  <si>
-    <t>Homoródalmás</t>
-  </si>
-  <si>
-    <t>Csíksomlyó</t>
-  </si>
-  <si>
-    <t>['Körtvélyfája', 'Kebele', 'Petele', 'Szászrégen']</t>
-  </si>
-  <si>
     <t>Nagyborosnyó</t>
   </si>
   <si>
     <t>Tusnádfürdő</t>
+  </si>
+  <si>
+    <t>Bálványos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,10 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -200,6 +134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -246,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +272,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,18 +465,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="109.5703125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -508,207 +491,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698C89B-AC31-4B17-8823-7A9CB1629357}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42251FD-41B3-4E17-9E98-A8325E23D39B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>title</t>
   </si>
@@ -34,31 +34,118 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Szétverték a medvék a szálloda egy részét</t>
-  </si>
-  <si>
-    <t>Emberre támadt a medve a háromszéki Nagyborosnyón</t>
-  </si>
-  <si>
-    <t>Villanypásztor állja a kukázó medvék útját</t>
-  </si>
-  <si>
-    <t>Jelentős kárt okoztak a héten egy bálványosi szállodában a garázdálkodó medvék. A vadak éjszaka betörtek az épületbe, felforgatták a konyhát, összetörtek egy mosodát és a vendéglői bejáratot. A térfigyelő kamerák rögzítették, amint a medvék ki-be járnak az ajtókon.</t>
-  </si>
-  <si>
-    <t>Emberre támadt a medve Nagyborosnyón csütörtökön. Az áldozat súlyos sérülésekkel került kórházba, de nincs életveszélyben – mondta el portálunknak Kanyó Antal, Nagyborosnyó alpolgármestere.</t>
-  </si>
-  <si>
-    <t>Mivel önmagukban nem váltak be, tovább növelték a medvebiztos szeméttárolók hatékonyságát Tusnádfürdőn: villanypásztorral vették körbe ezeket két helyszínen is. A területileg illetékes vadásztársaságnak vannak fenntartásai, az önkormányzat azonban a lehetséges kockázatokra is gondolt.</t>
-  </si>
-  <si>
-    <t>Nagyborosnyó</t>
+    <t>Újabb medvét gázoltak el, ezúttal Kovászna megye határában</t>
+  </si>
+  <si>
+    <t>Érdeklődik a medve a füstölt sonka iránt, de azért csapdába nem sétál érte</t>
+  </si>
+  <si>
+    <t>Bocsával együtt tört be az udvarra az anyamedve</t>
+  </si>
+  <si>
+    <t>Még a kormányválság is a garázdálkodó medvéknek kedvez</t>
+  </si>
+  <si>
+    <t>Nagykadácson és Felsőboldogfalván is medve miatt riasztották a csendőröket</t>
+  </si>
+  <si>
+    <t>Nem sokat ér a medvebiztos kuka, ha mellé teszik a szemetet</t>
+  </si>
+  <si>
+    <t>Már most kellene számolni a medvékkel a Marosvásárhely–Jászvásár autópálya építésénél</t>
+  </si>
+  <si>
+    <t>Medgyes utcáiról zavarták el a medvét</t>
+  </si>
+  <si>
+    <t>Lépcsőházban járt a medve</t>
+  </si>
+  <si>
+    <t>Sebzett medvét üldöznek a vadászok Székelyudvarhely határában</t>
+  </si>
+  <si>
+    <t>Öt medve pusztult el egy hét alatt Háromszéken</t>
+  </si>
+  <si>
+    <t>Juhokat ölt a medve Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Autót rongált a medve</t>
+  </si>
+  <si>
+    <t>Elgázolt vasárnap este egy gépkocsi egy medvét a Kovászna megyei Ozsdola és Tulnici között, a 2D jelzésű országúton – írja a Vrancea Megyei Rendőr-főkapitányságra hivatkozva az Agerpres.</t>
+  </si>
+  <si>
+    <t>Több háziállatot is megölt Homoródalmáson egy medve, amelyre közel egy hónapja kért – eddig eredménytelenül – kilövési engedélyt az illetékes vadásztársaság. Azóta csapdát és vadkamerát is kihelyeztek a helyszínen, és az is kiderült, hogy a továbbra is károkat okozó medve egy kifejlett, felnőtt egyed.</t>
+  </si>
+  <si>
+    <t>Ismét medvéhez riasztották keddre virradóan a csendőröket Tusnádfürdőn. A nagyvad egy asszony udvarára tört be, a környékbeli lakosságnak a Ro-Alert rendszerrel hívták fel a figyelmét a veszélyre – tájékoztatott az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Már a veszélyes medvék kilövésére sem kapnak engedélyt a vadásztársaságok, ugyanis a kormányválság miatt nem állít ki ilyen jellegű jóváhagyásokat a tárcavezető nélkül maradt környezetvédelmi minisztérium.</t>
+  </si>
+  <si>
+    <t>Medve miatt riasztották csütörtökre virradóra a Hargita megyei csendőröket a Siménfalvához tartozó Nagykadácson és Felsőboldogfalván.</t>
+  </si>
+  <si>
+    <t>Még nem tudni, hogy bevált-e a nyáron Sikaszóban felszerelt medvebiztos kuka, hiszen azóta más községbeli településekről sem érkeztek panaszok a nagyvadakra. Ami viszont rossz, hogy egyesek továbbra is a tárolók mellé teszik a szemetüket ahelyett, hogy beledobnák.</t>
+  </si>
+  <si>
+    <t>Tíz százalékkal növelné a Marosvásárhely–Jászvásár autópálya költségeit, ha megépítenék a vadátkelőket. Ha megteszik, példaértékű autópálya épülhet, ha azonban nem, akkor sok állat elpusztulna, és még több az emberek lakta települések felé terelődne.</t>
+  </si>
+  <si>
+    <t>A csendőrök, rendőrök és erdészek visszazavarták az erdőbe azt a medvét, amelyik szombat reggel Medgyesen kószált.</t>
+  </si>
+  <si>
+    <t>Egy fogarasi tömbház lépcsőházában látott medve miatt figyelmeztették a lakosságot a Ro-Alert rendszeren keresztül vasárnap este, tájékoztatott a Brassó Megyei Katasztrófavédelmi Felügyelőségre (ISU) hivatkozva az Agerpres.</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét ütöttek el hétfőn este Székelyudvarhely és Felsőboldogfalva között. A nagyvad nem vesztette életét, hanem a Nagy-oldalban lévő terepmotor-pályához közeli erdőbe menekült. A vadásztársulat jelenlegi is keresi a veszélyesnek minősülő sebzett medvét, így arra kérik a lakókat, hogy kerüljék a környéket.</t>
+  </si>
+  <si>
+    <t>Az elmúlt egy hét alatt öt medve pusztult el Háromszéken: kettőt a vonat ütött el, hármat az országúton gázoltak el a gépkocsik. Az árván maradt bocsokat Foksányba szállítják.</t>
+  </si>
+  <si>
+    <t>Egy juhot megölt, a másikat pedig halálosan megsebesítette a medve, amely szerdán hajnalban garázdálkodott a székelyudvarhelyi Rét utcai portán. A gazda a nagyvad visszatérésétől tart, a többi jószágát féltve. A vadászok csapdával igyekeznek befogni a kártékony medvét.</t>
+  </si>
+  <si>
+    <t>Gépkocsit rongált meg egy medve Bálványoson szerdára virradóan. A fürdőtelep Torja községhez tartozik, Daragus Attila polgármester lapunknak azt mondta, nem ez az első eset, hogy autókat „szednek szét” a medvék, előfordult, hogy egyetlen éjszaka alatt hat autót is összetörtek.</t>
+  </si>
+  <si>
+    <t>['Ozsdola', 'Kovászna']</t>
+  </si>
+  <si>
+    <t>Homoródalmás</t>
   </si>
   <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
-    <t>Bálványos</t>
+    <t>Felsőboldogfalva</t>
+  </si>
+  <si>
+    <t>Zetelaka</t>
+  </si>
+  <si>
+    <t>Marosvásárhely</t>
+  </si>
+  <si>
+    <t>['Fogaras', 'Brassó']</t>
+  </si>
+  <si>
+    <t>['Székelyudvarhely', 'Keresd', 'Felsőboldogfalva']</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely</t>
+  </si>
+  <si>
+    <t>['Torja', 'Dragus']</t>
+  </si>
+  <si>
+    <t>Ozsdola</t>
+  </si>
+  <si>
+    <t>Torja</t>
   </si>
 </sst>
 </file>
@@ -466,19 +553,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="109.5703125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="59.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -491,52 +578,207 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42251FD-41B3-4E17-9E98-A8325E23D39B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC66A5A-967C-44FE-92A8-D5D04613844D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>title</t>
   </si>
@@ -34,118 +34,88 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Újabb medvét gázoltak el, ezúttal Kovászna megye határában</t>
-  </si>
-  <si>
-    <t>Érdeklődik a medve a füstölt sonka iránt, de azért csapdába nem sétál érte</t>
-  </si>
-  <si>
-    <t>Bocsával együtt tört be az udvarra az anyamedve</t>
-  </si>
-  <si>
-    <t>Még a kormányválság is a garázdálkodó medvéknek kedvez</t>
-  </si>
-  <si>
-    <t>Nagykadácson és Felsőboldogfalván is medve miatt riasztották a csendőröket</t>
-  </si>
-  <si>
-    <t>Nem sokat ér a medvebiztos kuka, ha mellé teszik a szemetet</t>
-  </si>
-  <si>
-    <t>Már most kellene számolni a medvékkel a Marosvásárhely–Jászvásár autópálya építésénél</t>
-  </si>
-  <si>
-    <t>Medgyes utcáiról zavarták el a medvét</t>
-  </si>
-  <si>
-    <t>Lépcsőházban járt a medve</t>
-  </si>
-  <si>
-    <t>Sebzett medvét üldöznek a vadászok Székelyudvarhely határában</t>
-  </si>
-  <si>
-    <t>Öt medve pusztult el egy hét alatt Háromszéken</t>
-  </si>
-  <si>
-    <t>Juhokat ölt a medve Székelyudvarhelyen</t>
-  </si>
-  <si>
-    <t>Autót rongált a medve</t>
-  </si>
-  <si>
-    <t>Elgázolt vasárnap este egy gépkocsi egy medvét a Kovászna megyei Ozsdola és Tulnici között, a 2D jelzésű országúton – írja a Vrancea Megyei Rendőr-főkapitányságra hivatkozva az Agerpres.</t>
-  </si>
-  <si>
-    <t>Több háziállatot is megölt Homoródalmáson egy medve, amelyre közel egy hónapja kért – eddig eredménytelenül – kilövési engedélyt az illetékes vadásztársaság. Azóta csapdát és vadkamerát is kihelyeztek a helyszínen, és az is kiderült, hogy a továbbra is károkat okozó medve egy kifejlett, felnőtt egyed.</t>
-  </si>
-  <si>
-    <t>Ismét medvéhez riasztották keddre virradóan a csendőröket Tusnádfürdőn. A nagyvad egy asszony udvarára tört be, a környékbeli lakosságnak a Ro-Alert rendszerrel hívták fel a figyelmét a veszélyre – tájékoztatott az Agerpres hírügynökség.</t>
-  </si>
-  <si>
-    <t>Már a veszélyes medvék kilövésére sem kapnak engedélyt a vadásztársaságok, ugyanis a kormányválság miatt nem állít ki ilyen jellegű jóváhagyásokat a tárcavezető nélkül maradt környezetvédelmi minisztérium.</t>
-  </si>
-  <si>
-    <t>Medve miatt riasztották csütörtökre virradóra a Hargita megyei csendőröket a Siménfalvához tartozó Nagykadácson és Felsőboldogfalván.</t>
-  </si>
-  <si>
-    <t>Még nem tudni, hogy bevált-e a nyáron Sikaszóban felszerelt medvebiztos kuka, hiszen azóta más községbeli településekről sem érkeztek panaszok a nagyvadakra. Ami viszont rossz, hogy egyesek továbbra is a tárolók mellé teszik a szemetüket ahelyett, hogy beledobnák.</t>
-  </si>
-  <si>
-    <t>Tíz százalékkal növelné a Marosvásárhely–Jászvásár autópálya költségeit, ha megépítenék a vadátkelőket. Ha megteszik, példaértékű autópálya épülhet, ha azonban nem, akkor sok állat elpusztulna, és még több az emberek lakta települések felé terelődne.</t>
-  </si>
-  <si>
-    <t>A csendőrök, rendőrök és erdészek visszazavarták az erdőbe azt a medvét, amelyik szombat reggel Medgyesen kószált.</t>
-  </si>
-  <si>
-    <t>Egy fogarasi tömbház lépcsőházában látott medve miatt figyelmeztették a lakosságot a Ro-Alert rendszeren keresztül vasárnap este, tájékoztatott a Brassó Megyei Katasztrófavédelmi Felügyelőségre (ISU) hivatkozva az Agerpres.</t>
-  </si>
-  <si>
-    <t>Kétbocsos anyamedvét ütöttek el hétfőn este Székelyudvarhely és Felsőboldogfalva között. A nagyvad nem vesztette életét, hanem a Nagy-oldalban lévő terepmotor-pályához közeli erdőbe menekült. A vadásztársulat jelenlegi is keresi a veszélyesnek minősülő sebzett medvét, így arra kérik a lakókat, hogy kerüljék a környéket.</t>
-  </si>
-  <si>
-    <t>Az elmúlt egy hét alatt öt medve pusztult el Háromszéken: kettőt a vonat ütött el, hármat az országúton gázoltak el a gépkocsik. Az árván maradt bocsokat Foksányba szállítják.</t>
-  </si>
-  <si>
-    <t>Egy juhot megölt, a másikat pedig halálosan megsebesítette a medve, amely szerdán hajnalban garázdálkodott a székelyudvarhelyi Rét utcai portán. A gazda a nagyvad visszatérésétől tart, a többi jószágát féltve. A vadászok csapdával igyekeznek befogni a kártékony medvét.</t>
-  </si>
-  <si>
-    <t>Gépkocsit rongált meg egy medve Bálványoson szerdára virradóan. A fürdőtelep Torja községhez tartozik, Daragus Attila polgármester lapunknak azt mondta, nem ez az első eset, hogy autókat „szednek szét” a medvék, előfordult, hogy egyetlen éjszaka alatt hat autót is összetörtek.</t>
-  </si>
-  <si>
-    <t>['Ozsdola', 'Kovászna']</t>
-  </si>
-  <si>
-    <t>Homoródalmás</t>
-  </si>
-  <si>
-    <t>Tusnádfürdő</t>
-  </si>
-  <si>
-    <t>Felsőboldogfalva</t>
-  </si>
-  <si>
-    <t>Zetelaka</t>
-  </si>
-  <si>
-    <t>Marosvásárhely</t>
-  </si>
-  <si>
-    <t>['Fogaras', 'Brassó']</t>
-  </si>
-  <si>
-    <t>['Székelyudvarhely', 'Keresd', 'Felsőboldogfalva']</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely</t>
-  </si>
-  <si>
-    <t>['Torja', 'Dragus']</t>
-  </si>
-  <si>
-    <t>Ozsdola</t>
-  </si>
-  <si>
-    <t>Torja</t>
+    <t>Medveprobléma: brüsszeli nyomásgyakorlásban bíznak a székelyföldi megyék vezetői</t>
+  </si>
+  <si>
+    <t>Sokkos állapotban került kórházba a medvetámadás áldozata</t>
+  </si>
+  <si>
+    <t>Kilőnék a Hidegkúton emberre támadó medvét</t>
+  </si>
+  <si>
+    <t>Szeben és Fehér megye is csatlakozott a „medvepetícióhoz”</t>
+  </si>
+  <si>
+    <t>Megtérítik a gazdáknak az elmúlt három évben történt medvekárokat</t>
+  </si>
+  <si>
+    <t>Csíksomlyón jár a medve – figyelmeztet a Ro-Alert</t>
+  </si>
+  <si>
+    <t>Kilőtték a medvét, amely május óta rettegésben tartotta a speciális iskola tanulóit</t>
+  </si>
+  <si>
+    <t>Számítani kell arra, hogy télen is aktívak lehetnek a medvék</t>
+  </si>
+  <si>
+    <t>A háztáji gazdaságban levő összes birkát megölte a medve Gyergyóvaslábon</t>
+  </si>
+  <si>
+    <t>Brüsszelben keresnek támogatást az egyre súlyosbodó medveproblémára Hargita, Kovászna, Maros és Brassó megye vezetői. Úgy vélik, „Bukarestben akkor kapják fel a fejüket, ha Brüsszelből kapnak egy intést”. </t>
+  </si>
+  <si>
+    <t>Mellkasi sérülései a legsúlyosabbak annak a férfinak, aki medvetámadásban szerzett többszöri zúzott sebeket testének gyomortájékán, az ágyéki részen és könyökén kedd este. Az elsődleges információk szerint a hidegkúti férfi az esztenáról tért haza, amikor saját kertjében rátámadt a nagyvad.</t>
+  </si>
+  <si>
+    <t>Kérni fogja az engedélyt a székelykeresztúri Hubertus Vadászegyesület a környezetvédelmi minisztériumtól azon medve kilövésére, amely kedden rátámadt egy férfire Hidegkúton.</t>
+  </si>
+  <si>
+    <t>Szeben és Fehér megyék vezetői is aláírták az Európai Parlament (EP) Petíciós Bizottságához benyújtandó folyamodványt, amelyben ismertetik, hogy az elszaporodott medveállomány veszélyezteti az emberéletet, és a mezőgazdasági javak sincsenek biztonságban.</t>
+  </si>
+  <si>
+    <t>Biztosítják az önkormányzatok működését az idei évre, kifizetik a Helyi Fejlesztési Országos Program támogatásait, és az elmúlt három év medvekárait is megtérítik a gazdáknak – jelentették be Csíkszeredában az RMDSZ politikusai a kormány által meghozott költségvetés-kiigazítást ismertetve.</t>
+  </si>
+  <si>
+    <t>Csíksomlyón, a sípálya környékén felbukkant medvéről kaptak bejelentést a hatóságok hétfő késődélután, a vészhelyzeti felügyelőség azonnal figyelmeztető üzenetet küldött a Ro-Alert rendszeren keresztül a környéken lévőknek.</t>
+  </si>
+  <si>
+    <t>Kilőtték hétvégén azt a medvét, amely május óta tartotta rettegésben az oltszemi speciális iskolában tanuló ötven, állami gondozásban lévő gyermeket, illetve gondozóikat.</t>
+  </si>
+  <si>
+    <t>Egyértelmű, hogy Székelyföldön még nem vonultak téli álomra a medvék, ezért arra voltunk kíváncsiak, hogy ez általában milyen körülmények között történik meg. A vadászok szerint az elkövetkező hónapokban is számíthatunk nagyvadak által okozott károkra.</t>
+  </si>
+  <si>
+    <t>Tizenegy birkát ölt meg a hétfőről keddre virradó éjszaka egy nőstény medve Gyergyóvasláb község egyik, vonatállomáshoz közeli házának udvarán.</t>
+  </si>
+  <si>
+    <t>['Brassó', 'Kovászna']</t>
+  </si>
+  <si>
+    <t>Hidegkút</t>
+  </si>
+  <si>
+    <t>['Hidegkút', 'Székelykeresztúr']</t>
+  </si>
+  <si>
+    <t>Csíksomlyó</t>
+  </si>
+  <si>
+    <t>Oltszem</t>
+  </si>
+  <si>
+    <t>Kilyén</t>
+  </si>
+  <si>
+    <t>Székelykeresztúr</t>
+  </si>
+  <si>
+    <t>Szeben</t>
+  </si>
+  <si>
+    <t>Csíkszereda</t>
+  </si>
+  <si>
+    <t>Vasláb</t>
   </si>
 </sst>
 </file>
@@ -553,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="59.28515625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="68.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,13 +556,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -603,16 +573,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -620,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -637,10 +607,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -648,16 +621,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -665,16 +635,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -682,16 +652,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -699,10 +669,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -710,75 +683,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC66A5A-967C-44FE-92A8-D5D04613844D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5ACA44-EF9D-420F-A89E-E84A4AF01928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="15495" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>title</t>
   </si>
@@ -34,88 +34,100 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Medveprobléma: brüsszeli nyomásgyakorlásban bíznak a székelyföldi megyék vezetői</t>
-  </si>
-  <si>
-    <t>Sokkos állapotban került kórházba a medvetámadás áldozata</t>
-  </si>
-  <si>
-    <t>Kilőnék a Hidegkúton emberre támadó medvét</t>
-  </si>
-  <si>
-    <t>Szeben és Fehér megye is csatlakozott a „medvepetícióhoz”</t>
-  </si>
-  <si>
-    <t>Megtérítik a gazdáknak az elmúlt három évben történt medvekárokat</t>
-  </si>
-  <si>
-    <t>Csíksomlyón jár a medve – figyelmeztet a Ro-Alert</t>
-  </si>
-  <si>
-    <t>Kilőtték a medvét, amely május óta rettegésben tartotta a speciális iskola tanulóit</t>
-  </si>
-  <si>
-    <t>Számítani kell arra, hogy télen is aktívak lehetnek a medvék</t>
-  </si>
-  <si>
-    <t>A háztáji gazdaságban levő összes birkát megölte a medve Gyergyóvaslábon</t>
-  </si>
-  <si>
-    <t>Brüsszelben keresnek támogatást az egyre súlyosbodó medveproblémára Hargita, Kovászna, Maros és Brassó megye vezetői. Úgy vélik, „Bukarestben akkor kapják fel a fejüket, ha Brüsszelből kapnak egy intést”. </t>
-  </si>
-  <si>
-    <t>Mellkasi sérülései a legsúlyosabbak annak a férfinak, aki medvetámadásban szerzett többszöri zúzott sebeket testének gyomortájékán, az ágyéki részen és könyökén kedd este. Az elsődleges információk szerint a hidegkúti férfi az esztenáról tért haza, amikor saját kertjében rátámadt a nagyvad.</t>
-  </si>
-  <si>
-    <t>Kérni fogja az engedélyt a székelykeresztúri Hubertus Vadászegyesület a környezetvédelmi minisztériumtól azon medve kilövésére, amely kedden rátámadt egy férfire Hidegkúton.</t>
-  </si>
-  <si>
-    <t>Szeben és Fehér megyék vezetői is aláírták az Európai Parlament (EP) Petíciós Bizottságához benyújtandó folyamodványt, amelyben ismertetik, hogy az elszaporodott medveállomány veszélyezteti az emberéletet, és a mezőgazdasági javak sincsenek biztonságban.</t>
-  </si>
-  <si>
-    <t>Biztosítják az önkormányzatok működését az idei évre, kifizetik a Helyi Fejlesztési Országos Program támogatásait, és az elmúlt három év medvekárait is megtérítik a gazdáknak – jelentették be Csíkszeredában az RMDSZ politikusai a kormány által meghozott költségvetés-kiigazítást ismertetve.</t>
-  </si>
-  <si>
-    <t>Csíksomlyón, a sípálya környékén felbukkant medvéről kaptak bejelentést a hatóságok hétfő késődélután, a vészhelyzeti felügyelőség azonnal figyelmeztető üzenetet küldött a Ro-Alert rendszeren keresztül a környéken lévőknek.</t>
-  </si>
-  <si>
-    <t>Kilőtték hétvégén azt a medvét, amely május óta tartotta rettegésben az oltszemi speciális iskolában tanuló ötven, állami gondozásban lévő gyermeket, illetve gondozóikat.</t>
-  </si>
-  <si>
-    <t>Egyértelmű, hogy Székelyföldön még nem vonultak téli álomra a medvék, ezért arra voltunk kíváncsiak, hogy ez általában milyen körülmények között történik meg. A vadászok szerint az elkövetkező hónapokban is számíthatunk nagyvadak által okozott károkra.</t>
-  </si>
-  <si>
-    <t>Tizenegy birkát ölt meg a hétfőről keddre virradó éjszaka egy nőstény medve Gyergyóvasláb község egyik, vonatállomáshoz közeli házának udvarán.</t>
-  </si>
-  <si>
-    <t>['Brassó', 'Kovászna']</t>
+    <t>Feldúlva találták a sírhelyeket</t>
+  </si>
+  <si>
+    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
+  </si>
+  <si>
+    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
+  </si>
+  <si>
+    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
+  </si>
+  <si>
+    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
+  </si>
+  <si>
+    <t>Aktívak a medvék Székelyudvarhely környékén</t>
+  </si>
+  <si>
+    <t>Lemondott a vadásztársaság az emberre támadó hidegkúti medve kilövéséről</t>
+  </si>
+  <si>
+    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
+  </si>
+  <si>
+    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
+  </si>
+  <si>
+    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
+  </si>
+  <si>
+    <t>Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
+  </si>
+  <si>
+    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
+  </si>
+  <si>
+    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
+  </si>
+  <si>
+    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
+  </si>
+  <si>
+    <t>Megúszta a kilövést a Hidegkúton emberre támadó medve, az illetékes vadásztársaságnál lemondtak arról, hogy a vad ártalmatlanítására rendkívüli jóváhagyást igényeljenek a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
+  </si>
+  <si>
+    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
+  </si>
+  <si>
+    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+  </si>
+  <si>
+    <t>['Vasláb', 'Heveder']</t>
+  </si>
+  <si>
+    <t>['Marosvásárhely', 'Zetelaka']</t>
+  </si>
+  <si>
+    <t>Zabola</t>
+  </si>
+  <si>
+    <t>Parajd</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely</t>
   </si>
   <si>
     <t>Hidegkút</t>
   </si>
   <si>
-    <t>['Hidegkút', 'Székelykeresztúr']</t>
-  </si>
-  <si>
-    <t>Csíksomlyó</t>
-  </si>
-  <si>
-    <t>Oltszem</t>
-  </si>
-  <si>
-    <t>Kilyén</t>
-  </si>
-  <si>
-    <t>Székelykeresztúr</t>
-  </si>
-  <si>
-    <t>Szeben</t>
+    <t>['Haraly', 'Zetelaka', 'Farkaslaka']</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós</t>
+  </si>
+  <si>
+    <t>Vasláb</t>
+  </si>
+  <si>
+    <t>Zetelaka</t>
+  </si>
+  <si>
+    <t>Sepsiszentgyörgy</t>
   </si>
   <si>
     <t>Csíkszereda</t>
-  </si>
-  <si>
-    <t>Vasláb</t>
   </si>
 </sst>
 </file>
@@ -523,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="68.140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="32.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -556,16 +568,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -573,16 +585,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -590,16 +602,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -607,13 +616,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,13 +633,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -635,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -652,16 +667,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -669,13 +684,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -683,9 +701,29 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
       <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5ACA44-EF9D-420F-A89E-E84A4AF01928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F313231-F949-4D1F-AD74-F2CBFF85CC06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="15495" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>title</t>
   </si>
@@ -34,100 +34,112 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Feldúlva találták a sírhelyeket</t>
-  </si>
-  <si>
-    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
-  </si>
-  <si>
-    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
-  </si>
-  <si>
-    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
-  </si>
-  <si>
-    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
-  </si>
-  <si>
-    <t>Aktívak a medvék Székelyudvarhely környékén</t>
-  </si>
-  <si>
-    <t>Lemondott a vadásztársaság az emberre támadó hidegkúti medve kilövéséről</t>
-  </si>
-  <si>
-    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
-  </si>
-  <si>
-    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
-  </si>
-  <si>
-    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
-  </si>
-  <si>
-    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
-  </si>
-  <si>
-    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
-  </si>
-  <si>
-    <t>Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
-  </si>
-  <si>
-    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
-  </si>
-  <si>
-    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
-  </si>
-  <si>
-    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
-  </si>
-  <si>
-    <t>Megúszta a kilövést a Hidegkúton emberre támadó medve, az illetékes vadásztársaságnál lemondtak arról, hogy a vad ártalmatlanítására rendkívüli jóváhagyást igényeljenek a környezetvédelmi minisztériumtól.</t>
-  </si>
-  <si>
-    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
-  </si>
-  <si>
-    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
-  </si>
-  <si>
-    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
-  </si>
-  <si>
-    <t>['Vasláb', 'Heveder']</t>
-  </si>
-  <si>
-    <t>['Marosvásárhely', 'Zetelaka']</t>
-  </si>
-  <si>
-    <t>Zabola</t>
-  </si>
-  <si>
-    <t>Parajd</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely</t>
-  </si>
-  <si>
-    <t>Hidegkút</t>
-  </si>
-  <si>
-    <t>['Haraly', 'Zetelaka', 'Farkaslaka']</t>
+    <t>Elpusztult egy medve Etéd határában, orvvadászat gyanújával vizsgálódik a rendőrség</t>
+  </si>
+  <si>
+    <t>Célkeresztben a „medvetörvény” – a vadászok szerint a szaktárca összemossa a fogalmakat</t>
+  </si>
+  <si>
+    <t>Tehetetlenek a lakók, az ablakból kénytelenek végignézni, ahogy a medvék elpusztítják a haszonállataikat</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
+  </si>
+  <si>
+    <t>Áthelyezik egy másik területre a Tusnádfürdőre napi rendszerességgel bejáró medvét</t>
+  </si>
+  <si>
+    <t>Medvék miatt riasztották a hatóságokat és ébresztették fel álmukból a környéken élőket</t>
+  </si>
+  <si>
+    <t>Külön megelőzési kvótát és a medvekárok kifizetését kérik</t>
+  </si>
+  <si>
+    <t>A kormorán lekerülhet a védett fajok listájáról, a medve viszont már nem?</t>
+  </si>
+  <si>
+    <t>Medve hatolt be egy tusnádfürdői portára</t>
+  </si>
+  <si>
+    <t>Hárombocsos anyamedve bukkant fel Gyergyószentmiklósnál</t>
+  </si>
+  <si>
+    <t>Boncolás után úgy vélik, autó üthette el az elpusztult medvét</t>
+  </si>
+  <si>
+    <t>A villanypásztor sem állította meg a medvét</t>
+  </si>
+  <si>
+    <t>Sérült medve miatt riasztották a hatóságokat Etéd határába hétfőn. Különleges intézkedésre nem volt szükség, az állat ugyanis időközben kimúlt.</t>
+  </si>
+  <si>
+    <t>A többéves tiltás után tavaly ugyan megszületett a törvény a medvekilövési kvóták jóváhagyásáról, ám úgy tűnik, a gyakorlatban ez nem történik meg. A beavatkozás és megelőzés fogalmakat összemosva alkotott rendelet-tervezetet a környezetvédelmi minisztérium a medvekilövések szabályozására.</t>
+  </si>
+  <si>
+    <t>Nemcsak éjszaka, hanem nappal is több medve jár be a háromszéki Zágon község falvaiba. Az emberek rettegnek, az életüket féltik, miközben a vadak számos háziállatot elpusztítottak már. Állandó a csendőri jelenlét, a Ro-Alert rendszeren keresztül egymás érik a vészhelyzeti riasztások.</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
+  </si>
+  <si>
+    <t>A hatóságok kérésére át fogják helyezni egy másik területre azt a medvét, amely majdnem minden nap lelátogat a nappali órákban Tusnádfürdőre és a település utcáin kószál élelmet keresve. A helyi hatóságok várják a környezetvédelmi minisztérium ilyen irányú engedélyét.</t>
+  </si>
+  <si>
+    <t>Vaslábon egy ház udvarára, míg a Székelyudvarhelyhez tartozó Szejkefürdőn szintén egy háztartás udvarára járt be a medve vasárnap este. Mindkét esetben riasztották a hatóságokat, valamint figyelmeztetést küldtek a környéken élőknek a RO-Alert rendszeren keresztül.</t>
+  </si>
+  <si>
+    <t>A környezetvédelmi minisztérium a közvitára bocsátott rendelettervezetében összemossa a barnamedve kilövésére vonatkozó beavatkozási és megelőzési kvótát, és a vadkárok kifizetése is késik. Fejér László Ödön háromszéki szenátor levélben fordult Costel Alexe környezetvédelmi miniszterhez.</t>
+  </si>
+  <si>
+    <t>Képmutatásnak tartja Benkő Erika RMDSZ parlamenti képviselő, hogy a kormorán lekerülhet a védett fajok listájáról, a medve pedig nem. A parlamentbe benyújtott tervezet alapján levennék a kormoránt a szigorúan védett fajok listájáról, mert a madár túl sok halat eszik.</t>
+  </si>
+  <si>
+    <t>Egy tusnádfürdői portára ment be egy medve csütörtökön késő este negyed tizenegy körül. Behatolt a pincébe, és betört egy kis ablakot a ház hátsó részén.</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós közelébe „tévedt” medvék miatt riasztották a hatóságokat péntek este. A lakókat a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>A tetemen elvégzett boncolás eredményei szerint szinte biztosan egy autó üthette el azt a medvét, amelyet két hete találtak meg Kőrispatak határában a megyei úttól nem messze. A rendőrség még nyomoz az ügyben.</t>
+  </si>
+  <si>
+    <t>Nem először tört be medve az etédi Kelemen család portájára, ahol ezúttal egy bárányt ölt meg. A községben egyébként csak ebben az esztendőben már közel húsz hasonló eset történt, egyelőre azonban nincs megoldás a problémára. A vadászok kérni fogják a problémás egyed kilövését.</t>
+  </si>
+  <si>
+    <t>Etéd</t>
+  </si>
+  <si>
+    <t>Haraly</t>
+  </si>
+  <si>
+    <t>['Ádámos', 'Zágon']</t>
+  </si>
+  <si>
+    <t>['Felsőboldogfalva', 'Farcád']</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő</t>
+  </si>
+  <si>
+    <t>Vasláb</t>
+  </si>
+  <si>
+    <t>['Tusnád', 'Tusnádfürdő']</t>
   </si>
   <si>
     <t>Gyergyószentmiklós</t>
   </si>
   <si>
-    <t>Vasláb</t>
-  </si>
-  <si>
-    <t>Zetelaka</t>
-  </si>
-  <si>
-    <t>Sepsiszentgyörgy</t>
-  </si>
-  <si>
-    <t>Csíkszereda</t>
+    <t>['Kőrispatak', 'Kispatak']</t>
+  </si>
+  <si>
+    <t>Zágon</t>
+  </si>
+  <si>
+    <t>Farcád</t>
+  </si>
+  <si>
+    <t>Kőrispatak</t>
   </si>
 </sst>
 </file>
@@ -186,16 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,22 +541,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="32.28515625" style="3" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -560,171 +563,193 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F313231-F949-4D1F-AD74-F2CBFF85CC06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B509A-6A33-44D5-ACC2-F437CD811091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="179">
   <si>
     <t>title</t>
   </si>
@@ -34,18 +34,75 @@
     <t>actual_locs</t>
   </si>
   <si>
+    <t>Nem pontosak a belügyi tárca medvetámadásokra vonatkozó adatai – állítja egy politikus</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket</t>
+  </si>
+  <si>
+    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
+  </si>
+  <si>
+    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
+  </si>
+  <si>
+    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
+  </si>
+  <si>
+    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
+  </si>
+  <si>
+    <t>Aktívak a medvék Székelyudvarhely környékén</t>
+  </si>
+  <si>
+    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
+  </si>
+  <si>
+    <t>Lakott területektől távol engedték szabadon a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Még nem tudni, hogy mennyi medvét lehet majd kilőni</t>
+  </si>
+  <si>
+    <t>Újra garázdálkodnak a medvék Maros megyében</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kértek a Maros megyében garázdálkodó medvére</t>
+  </si>
+  <si>
+    <t>Két medvét látott egy nő a háza közelében, egyet találtak a helyszínen a csendőrök</t>
+  </si>
+  <si>
+    <t>Egy hónap sem kell, és megnövekednek a medvekárok a populáció túlszaporodása miatt</t>
+  </si>
+  <si>
+    <t>Juhokat öltek és bárányokat vittek el a nagyvadak</t>
+  </si>
+  <si>
+    <t>Figyelmeztető lövésekkel kergették el a Székelyudvarhelyre betérő medvét</t>
+  </si>
+  <si>
+    <t>Három medve járt be egy ülkei gazdaságba</t>
+  </si>
+  <si>
+    <t>Három medve egy csíkbánkfalvi portán</t>
+  </si>
+  <si>
     <t>Elpusztult egy medve Etéd határában, orvvadászat gyanújával vizsgálódik a rendőrség</t>
   </si>
   <si>
     <t>Célkeresztben a „medvetörvény” – a vadászok szerint a szaktárca összemossa a fogalmakat</t>
   </si>
   <si>
+    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
+  </si>
+  <si>
     <t>Tehetetlenek a lakók, az ablakból kénytelenek végignézni, ahogy a medvék elpusztítják a haszonállataikat</t>
   </si>
   <si>
-    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
-  </si>
-  <si>
     <t>Áthelyezik egy másik területre a Tusnádfürdőre napi rendszerességgel bejáró medvét</t>
   </si>
   <si>
@@ -70,18 +127,189 @@
     <t>A villanypásztor sem állította meg a medvét</t>
   </si>
   <si>
+    <t>Tyúkokat ölt a medve Vaslábon</t>
+  </si>
+  <si>
+    <t>Fára mászott medvebocsot mentettek meg</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el a csendőrök a tusnádfürdői vonatállomás közeléből</t>
+  </si>
+  <si>
+    <t>Medvebocsot pusztíthatott el egy másik medve</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdőn, egy bocs áldozatul esett</t>
+  </si>
+  <si>
+    <t>Bármely napszakban, a város bármely pontján felbukkanhatnak a medvék</t>
+  </si>
+  <si>
+    <t>Medvenagyüzem Tusnádfürdőn</t>
+  </si>
+  <si>
+    <t>Üzletnél járt a medve, hiába kergették el, visszatért</t>
+  </si>
+  <si>
+    <t>Fényes nappal fogtak be egy sérült medvét Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Visszaengedték az erdőbe a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Maradj otthon, ezúttal medve miatt</t>
+  </si>
+  <si>
+    <t>Medvejárás Tusnádfürdőn, Marosfőn és Csobotfalván</t>
+  </si>
+  <si>
+    <t>Lakossági panasz hiányában semmit sem tehetnek a Csíkszeredában garázdálkodó medve ellen</t>
+  </si>
+  <si>
+    <t>Már egy egyszerű kirándulás is veszélyessé vált a medveproblémák miatt</t>
+  </si>
+  <si>
+    <t>Medve járkált Csíkszereda utcáin</t>
+  </si>
+  <si>
+    <t>Gyarapodó medvekárok Székelyudvarhelyen és környékén</t>
+  </si>
+  <si>
+    <t>Két medve a székelyudvarhelyi Szászok táborában</t>
+  </si>
+  <si>
+    <t>Tejjel táplálták a magára hagyott medvebocsot</t>
+  </si>
+  <si>
+    <t>Több medve is bejár Csíkszeredába, egyikre már kilövési engedélyt kértek</t>
+  </si>
+  <si>
+    <t>Medvét gázoltak el Csíkszereda közelében</t>
+  </si>
+  <si>
+    <t>Megbírságoltatná a környezetvédelmi miniszter azokat, akik medvéket etetnek</t>
+  </si>
+  <si>
+    <t>Nyílt levélben fordult az ország vezetőihez a medvejárás miatt Tusnádfürdő polgármestere</t>
+  </si>
+  <si>
+    <t>Nagy volt a medvejárás hétvégén Hargita megyében</t>
+  </si>
+  <si>
+    <t>Két medve is bement Székelyudvarhelyre</t>
+  </si>
+  <si>
+    <t>Medvéket kergettek el a hatóságiak Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Több mint tíz tehenet öltek meg a medvék a Gyergyószentmiklóshoz tartozó legelőkön</t>
+  </si>
+  <si>
+    <t>Medvekérdés: megoldás helyett munkacsoportot ígér a miniszter</t>
+  </si>
+  <si>
+    <t>Kerülik a lakott településeket a vadonba visszaengedett medvék</t>
+  </si>
+  <si>
+    <t>Kovásznai gondok: a medvék nem félnek az embertől, a turisták nem félnek a medvéktől</t>
+  </si>
+  <si>
+    <t>Erdeigyümölcs-ültetvénnyel tartanák távol az üdülőteleptől a gyilkostói medvéket</t>
+  </si>
+  <si>
+    <t>Magyarországi medveotthonba kerülhet néhány a tusnádfürdői medvék közül</t>
+  </si>
+  <si>
+    <t>Medveparkot hoznának létre</t>
+  </si>
+  <si>
+    <t>Beperelte a minisztériumot egy medvetámadás sérültje, első fokon kártérítésre jogosult</t>
+  </si>
+  <si>
+    <t>Második napja, hogy a borvízforrás környékén kószáló medvére figyelmeztetnek</t>
+  </si>
+  <si>
+    <t>Iskolaudvarról kellett kiűzni egy medvét Csíkszeredában</t>
+  </si>
+  <si>
+    <t>Elejtették a Csíkszeredában többször is felbukkanó medvét</t>
+  </si>
+  <si>
+    <t>A főtérig merészkedett a Csíkszeredában felbukkant újabb medve</t>
+  </si>
+  <si>
+    <t>Egyik a másik után – miért látni gyakran medvét Csíkszeredában?</t>
+  </si>
+  <si>
+    <t>Nem pontosak a belügyminisztérium kimutatásai a medvetámadásokról – állítja a Népi Mozgalom Párt Maros megyei képviselője, Marius Paşcan. A politikus által kikért adatok szerint az országban Hargita megyében van a legtöbb medve, közel kétezer.</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
+  </si>
+  <si>
+    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
+  </si>
+  <si>
+    <t>Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
+  </si>
+  <si>
+    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
+  </si>
+  <si>
+    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
+  </si>
+  <si>
+    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
+  </si>
+  <si>
+    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
+  </si>
+  <si>
+    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+  </si>
+  <si>
+    <t>Medvét fogott a székelyudvarhelyi Cserehát lakótelep közelében a Nagy-Küküllő Vadász- és Sporthorgász Egyesület az ebből a célból megépített csapdájával. A vadat a Hargita-hegység lábához szállították, majd szabadon engedték. A cél az volt, hogy a kilövés helyett új esélyt adjanak a fiatal nagyvadnak.</t>
+  </si>
+  <si>
+    <t>A vadászok számításai szerint országszerte legalább ötszáz medve kilövésére ad jóváhagyást idén a környezetvédelmi minisztérium a vadszámfelmérések eredménye alapján. A medvevadászat 2016-ban elrendelt teljes betiltása óta először hagyhatja jóvá idén a kilövési kereteket a szaktárca.</t>
+  </si>
+  <si>
+    <t>Hétvégén több Maros megyei településéről is jelezték, hogy medve járt a gazdaságokban, állatokat pusztított el.</t>
+  </si>
+  <si>
+    <t>Az elmúlt néhány nap alatt immár nyolc helyen okozott kárt a medve Maros megyében. Szerdán a prefektus összehívta a sürgősségi esetek parancsnokságát, és elhatározták, hogy kilövési engedélyt kérnek egy nagyvadra.</t>
+  </si>
+  <si>
+    <t>Csendőröket mozgósítottak és Ro-Alert vészhelyzeti üzenetet küldtek hétfőn éjfélkor Vaslábon, miután egy nő két medvét látott lakóháza udvarának közelében.</t>
+  </si>
+  <si>
+    <t>Gyergyó-, Csík- és Udvarhelyszéken is aktívak már a medvék – van olyan település is, ahol háziállatokra támadtak, de egyelőre ez nem jellemző. A vadásztársulatok vezetői szerint a későbbiekben azonban a tavalyinál is több probléma lesz.</t>
+  </si>
+  <si>
+    <t>Két bocs és egy anyamedve garázdálkodott szerdán hajnalban egy székelyszenttamási gazdaságban, ahol több juhot és bárányt is megölt. A gazda maga is látta a támadókat, reflektorokkal és kiabálással próbálta elriasztani, de azok csak a pusztítás után távoztak.</t>
+  </si>
+  <si>
+    <t>Egy nagyjából hároméves medve kóborolt szerda éjjel a székelyudvarhelyi II. Rákóczi Ferenc utcában – az esetet a Ro-Alert telefonos riasztórendszer is jelezte.</t>
+  </si>
+  <si>
+    <t>Három medve járt be péntek éjszaka egy, az Oroszhegyhez tartozó ülkei háztartásba, feltételezhetően egy anyamedve, két bocsával – tájékoztat közleményben a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Három medve járt be hétfőn koraeste egy csíkbánkfalvi portára. A medvék jelenlétét egy helyi lakos jelentette a 112-es egységes hívószámon 19 óra 37 perckor.</t>
+  </si>
+  <si>
     <t>Sérült medve miatt riasztották a hatóságokat Etéd határába hétfőn. Különleges intézkedésre nem volt szükség, az állat ugyanis időközben kimúlt.</t>
   </si>
   <si>
     <t>A többéves tiltás után tavaly ugyan megszületett a törvény a medvekilövési kvóták jóváhagyásáról, ám úgy tűnik, a gyakorlatban ez nem történik meg. A beavatkozás és megelőzés fogalmakat összemosva alkotott rendelet-tervezetet a környezetvédelmi minisztérium a medvekilövések szabályozására.</t>
   </si>
   <si>
+    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
+  </si>
+  <si>
     <t>Nemcsak éjszaka, hanem nappal is több medve jár be a háromszéki Zágon község falvaiba. Az emberek rettegnek, az életüket féltik, miközben a vadak számos háziállatot elpusztítottak már. Állandó a csendőri jelenlét, a Ro-Alert rendszeren keresztül egymás érik a vészhelyzeti riasztások.</t>
   </si>
   <si>
-    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
-  </si>
-  <si>
     <t>A hatóságok kérésére át fogják helyezni egy másik területre azt a medvét, amely majdnem minden nap lelátogat a nappali órákban Tusnádfürdőre és a település utcáin kószál élelmet keresve. A helyi hatóságok várják a környezetvédelmi minisztérium ilyen irányú engedélyét.</t>
   </si>
   <si>
@@ -106,33 +334,219 @@
     <t>Nem először tört be medve az etédi Kelemen család portájára, ahol ezúttal egy bárányt ölt meg. A községben egyébként csak ebben az esztendőben már közel húsz hasonló eset történt, egyelőre azonban nincs megoldás a problémára. A vadászok kérni fogják a problémás egyed kilövését.</t>
   </si>
   <si>
+    <t>Betört egy vaslábi portára és több tyúkot pusztított el egy medve péntekre virradóan – tájékoztatott a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Fára mászott és az ágakról lejönni nem tudó medvebocsnak segítettek szombaton késő délután a Maros megyei Libánfalván.</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el hétfő délután a csendőrök a tusnádfürdői állomás közeléből – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség. A hatóságokat a 112-es egységes segélyhívószámon értesítették az állatok jelenlétéről.</t>
+  </si>
+  <si>
+    <t>Rendőrök találtak rá egy elpusztult medvebocsra az erdővidéki Bardóc közelében, a patakparton. A környezetőrséget értesítették, a felügyelők pedig azt állapították meg, hogy az állat halálát egy másik, nagyobb medve okozhatta.</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdő egyik sétányán, mindkét állatnak három-három bocsa volt, amelyek mind felmenekültek a fákra. Egyikük azonban lemászott vagy leesett a fáról, és a másik anyamedve megölte.</t>
+  </si>
+  <si>
+    <t>Egyre több medve jár be napi rendszerességgel Tusnádfürdőre, az évek óta fennálló probléma pedig súlyosbodni látszik, mivel a szeméttárolóknál kihelyezett villanypásztorok miatt kiszámíthatatlanná vált, hol és mikor bukkannak fel a nagyvadak.</t>
+  </si>
+  <si>
+    <t>Több medve-észlelés miatt is riasztották a Hargita megyei csendőröket Tusnádfürdőről kedden este. A hatóságiak több medvét is elűztek a lakott területekről.</t>
+  </si>
+  <si>
+    <t>Öt esetben is közbe kellett lépniük a csendőröknek Tusnádfürdőn a medvék miatt vasárnap este és hétfőre virradóan.</t>
+  </si>
+  <si>
+    <t>Sérült fiatal medve tört be csütörtökön délelőtt egy székelyudvarhelyi háztartásba, majd egy magas fán keresett menedéket. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület tagjai altatólövedékkel vették célba a vadat, hogy megvizsgálhassák a sérülését.</t>
+  </si>
+  <si>
+    <t>A szükséges kezelések után vadászterületük egy másik részén engedték szabadon a csütörtökön Székelyudvarhelyen befogott sérült medvét a Nagy-Küküllő Vadász- és Sporthorgász Egyesület szakemberei.</t>
+  </si>
+  <si>
+    <t>Medvét láttak Oroszhegyben, a 73-as házszám közelében – értesítették a környéken élőket, sőt még a székelyudvarhelyieket is a Ro-Alert révén.</t>
+  </si>
+  <si>
+    <t>Többször riasztották a hétvégén a Hargita megyei csendőröket a települések utcáin kószáló medvék miatt – tájékoztatott a Hargita Megyei Csendőr-felügyelőség hétfőn.</t>
+  </si>
+  <si>
+    <t>Megrongálta egy lakóház kerítését a Malom utcában a napok óta Csíkszereda környékén garázdálkodó medve. A területileg illetékes vadásztársaság kérni fogja a naponta felbukkanó nagyvad kilövését, ehhez azonban lakossági panaszokra van szükség.</t>
+  </si>
+  <si>
+    <t>Bűnügyi keresetet nyújtott be a környezetvédelmi tárca vezetője és egyik államtitkára ellen a Zetelaki Területtulajdonosi Társulás. Az indok: nem hagyta jóvá a szakminisztérium a prevenciós célú kilövési kvótát, amellyel orvosolható lenne a medvevadászat betiltása óta fokozódó probléma.</t>
+  </si>
+  <si>
+    <t>Egy medvét kaptak lencsevégre kedden kora este a csíkszeredai Fenyő utcában, a Fortuna-park közelében. A videót a Vadkárok Székelyföldön Facebook-oldalon tették közzé.</t>
+  </si>
+  <si>
+    <t>Legalább tíz medve okoz folyamatosan gondokat a székelyudvarhelyi portákon: kecskéket, juhokat és tyúkokat pusztítanak el, de a környéken már emberre is támadott egy nagyvad. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület egyelőre a medvék befogására és áthelyezésére fekteti a hangsúlyt.</t>
+  </si>
+  <si>
+    <t>Két medvét észleltek Székelyudvarhelyen, a Szászok táborában – erről értesíti a helyieket a Ro-Alert alkalmazáson keresztül a vészhelyzeti felügyelőség.</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő határában, az út szélén magára hagyott medvebocs miatt riasztották a csendőröket vasárnap reggel. A vadállatot a hatóságiak „látták el”, míg a helyszínre érkezett egy állatorvos, illetve a balánbányai medve-visszavadító központ illetékese.</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kért a területileg illetékes vadásztársaság a Csíkszeredában egyre gyakrabban felbukkanó fiatal medvére. A megfigyeléseik során az is kiderült, hogy egy bocsos anyamedve is él a körkényen, vasárnap este pedig már lakott terület közelébe merészkedtek.</t>
+  </si>
+  <si>
+    <t>Medvét gázolt el egy autó Csíkszereda közelében, a 13A jelzésű országúton, a Domb-kanyar előtt csütörtök este. A balesetben a medve elpusztult, az autóban pedig anyagi kár keletkezett, senki nem sérült meg.</t>
+  </si>
+  <si>
+    <t>A medvéket etető személyek megbírságolását helyezte kilátásba Costel Alexe környezetvédelmi miniszter.</t>
+  </si>
+  <si>
+    <t>Az élethez és testi épséghez, illetve a tulajdonhoz való jogot veszélyeztetik a medvék Tusnádfürdőn – értékel az önkormányzati képviselő-testület nevében írt nyílt levelében Albert Tibor tusnádfürdői polgármester, aki a levelet az államelnöknek, a miniszterelnöknek, a szenátusnak és a képviselőháznak is.</t>
+  </si>
+  <si>
+    <t>A hétvége során hatszor riasztották a hatóságokat Hargita megye különböző településein medvék felbukkanása miatt.</t>
+  </si>
+  <si>
+    <t>Két medvére figyelmeztető RO-Alert jelzést küldtek a hatóságok a székelyudvarhelyieknek hétfőn koraeste.</t>
+  </si>
+  <si>
+    <t>Két, a Szentimre, illetve a Rózsa utcákban feltűnt fiatal medvét kellett elkergessenek a Székelyudvarhelyi Helyi Rendőrség, illetve a Nagy-Küküllő Vadász- és Sporthorgász Egyesület munkatársai hétfőn kora este.</t>
+  </si>
+  <si>
+    <t>Május közepe óta már legalább 11 szarvasmarha esett medvék támadásának áldozatul a Gyergyószentmiklóshoz tartozó legelőkön. Ezek azonban csak azok az esetek, melyeket a gazdák kártérítés reményében be is jelentettek.</t>
+  </si>
+  <si>
+    <t>Bár a módosított vadászati törvény értelmében május 15-ig kellett volna kiadja a környezetvédelmi minisztérium a medvekilövési kvótákat – beavatkozási és megelőzési kvótát egyaránt – ez nem történt meg.</t>
+  </si>
+  <si>
+    <t>Életben maradtak, ugyanakkor kerülik a településeket a Nagy-Küküllő Vadász- és Sporthorgász Egyesület által Székelyudvarhelyen befogott, majd a máshol szabadon engedett medvék. Más térségekben vagy nem végeztek hasonló áthelyezést, vagy távolabb vitték a nagyvadakat, így nem tudnak a további sorsukról.</t>
+  </si>
+  <si>
+    <t>Átiratokkal bombázza a hatóságokat Kovászna város önkormányzata, mert már tarthatatlanná vált a sok medve jelenléte a fürdővárosban. A másik probléma, hogy a turisták nem tartanak a vadállatoktól és a RO-Alert jelzés nyomán keresik őket a városban.</t>
+  </si>
+  <si>
+    <t>Elkerülik a medvék a Gyilkostó üdülőtelepet, javulnak a halak és denevérek életkörülményei, és új erdő is létesül – főbb pontokban ezt tervezi megvalósítani a Békás-szoros-Nagyhagymás Nemzeti Park. A közel három millió eurós pályázat előkészítése folyamatban van.</t>
+  </si>
+  <si>
+    <t> A Tusnádfürdőre rendszeresen bejáró és garázdálkodó medvék közül többet is befogadna a magyarországi Veresegyházán működő medveotthon. Az ajánlatot a Környezetvédelmi Minisztériumnak is elküldték, engedélyezésre várnak.</t>
+  </si>
+  <si>
+    <t>A háztáji gazdaságokban garázdálkodó, az emberek közelében táplálékot kereső medvék számára több száz hektáros medveparkot szeretne létrehozni a Hargita megyei önkormányzat, a szükséges területet a közbirtokosságoktól bérelnék.</t>
+  </si>
+  <si>
+    <t>A Csíkszeredai Bíróság első fokon 24 ezer lejes összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy sértett számára, akit két éve medve sebesített meg Tusnádfürdőn. Az elsőfokú ítélet ellen fellebbezést nyújtottak be, ezt még nem tárgyalták.</t>
+  </si>
+  <si>
+    <t>Akárcsak csütörtök este, péntek délután is felbukkant egy medve a csíksomlyói borvízforrás közelében. A környéken lévőket a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>Medvét vett észre a csíkszeredai Márton Áron Főgimnázium udvarán egy férfi, és riasztotta a hatóságokat a 112-n szombat éjjel negyed egykor.</t>
+  </si>
+  <si>
+    <t>A Márton Áron Főgimnázium udvarán ejtették el szombaton késő este a Csíkszeredába napok óta bejáró medvét. A fiatal egyedre kilövési engedélyt kapott az illetékes vadásztársulat a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>Miután szombat este kilőtték a múlt héten Csíkszereda és Csíksomlyó több pontján is felbukkant kis termetű medvét, egy másik egyed tűnt fel hétfőre virradóan a város utcáin. A nagyvad ezúttal a városközpontig, a Szabadság térre is bemerészkedett.</t>
+  </si>
+  <si>
+    <t>A fiatal medvék a területhiány miatt kénytelenek új élőhelyet keresni, ezért közelítik meg egyre gyakrabban a lakott területeket – véli a szakember azok után, hogy bebizonyosodott, Csíkszeredában nemcsak egy medve kószált az elmúlt napokban.</t>
+  </si>
+  <si>
+    <t>['Vasláb', 'Heveder']</t>
+  </si>
+  <si>
+    <t>['Marosvásárhely', 'Zetelaka']</t>
+  </si>
+  <si>
+    <t>Zabola</t>
+  </si>
+  <si>
+    <t>Parajd</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely</t>
+  </si>
+  <si>
+    <t>['Farkaslaka', 'Haraly', 'Zetelaka']</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós</t>
+  </si>
+  <si>
+    <t>Székelyszenttamás</t>
+  </si>
+  <si>
+    <t>['Zoltán', 'Csíkszentgyörgy', 'Csíkbánkfalva']</t>
+  </si>
+  <si>
     <t>Etéd</t>
   </si>
   <si>
     <t>Haraly</t>
   </si>
   <si>
+    <t>['Felsőboldogfalva', 'Farcád']</t>
+  </si>
+  <si>
     <t>['Ádámos', 'Zágon']</t>
   </si>
   <si>
-    <t>['Felsőboldogfalva', 'Farcád']</t>
-  </si>
-  <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
     <t>Vasláb</t>
   </si>
   <si>
-    <t>['Tusnád', 'Tusnádfürdő']</t>
-  </si>
-  <si>
-    <t>Gyergyószentmiklós</t>
+    <t>['Tusnádfürdő', 'Tusnád']</t>
   </si>
   <si>
     <t>['Kőrispatak', 'Kispatak']</t>
   </si>
   <si>
+    <t>Bardoc</t>
+  </si>
+  <si>
+    <t>Oroszhegy</t>
+  </si>
+  <si>
+    <t>['Tusnádfürdő', 'Csobotfalva', 'Marosfő']</t>
+  </si>
+  <si>
+    <t>Csíkszereda</t>
+  </si>
+  <si>
+    <t>Zetelaka</t>
+  </si>
+  <si>
+    <t>['Tusnádfürdő', 'Balánbánya', 'Magura']</t>
+  </si>
+  <si>
+    <t>['Nyomát', 'Kovászna']</t>
+  </si>
+  <si>
+    <t>['Keresd', 'Kerelő']</t>
+  </si>
+  <si>
+    <t>['Tusnádfürdő', 'Csíkszereda']</t>
+  </si>
+  <si>
+    <t>['Csíksomlyó', 'Csíkszereda']</t>
+  </si>
+  <si>
+    <t>['Márkos', 'Márkod', 'Csíkszereda']</t>
+  </si>
+  <si>
+    <t>Heveder</t>
+  </si>
+  <si>
+    <t>Sepsiszentgyörgy</t>
+  </si>
+  <si>
+    <t>Marosvásárhely</t>
+  </si>
+  <si>
+    <t>Ülke</t>
+  </si>
+  <si>
+    <t>Csíkbánkfalva</t>
+  </si>
+  <si>
     <t>Zágon</t>
   </si>
   <si>
@@ -140,6 +554,9 @@
   </si>
   <si>
     <t>Kőrispatak</t>
+  </si>
+  <si>
+    <t>Libánfalva</t>
   </si>
 </sst>
 </file>
@@ -198,10 +615,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,19 +964,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77.140625" customWidth="1"/>
+    <col min="3" max="3" width="77.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="31.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -563,193 +991,1108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60714C-0794-4483-98E7-8C24D5D99D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611F894-DCDB-4EA9-82BB-3FF8EC5D182D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>title</t>
   </si>
@@ -34,109 +34,52 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Megtermett medve rohangált Csíkpálfalva utcáin</t>
-  </si>
-  <si>
-    <t>Kutyát és juhokat pusztítottak el a medvék Csíkszéken</t>
-  </si>
-  <si>
-    <t>Egyre több medve csatangol Székelyudvarhelyen, két példányt áthelyeztetnének</t>
-  </si>
-  <si>
-    <t>Rendszeresen garázdálkodik egy nagyvad Székelyszentmihályon</t>
-  </si>
-  <si>
-    <t>Ez a medve nem csak úgy átszaladt az úton – kétszer is meggondolta</t>
-  </si>
-  <si>
-    <t>Pásztorra támadt egy medve Csíkbánkfalva közelében</t>
-  </si>
-  <si>
-    <t>A kilövési kérések száma alapján is Székelyföldön a legsúlyosabb a medveprobléma</t>
-  </si>
-  <si>
-    <t>Ha ezt a medvék tudnák...</t>
-  </si>
-  <si>
-    <t>Szakmai tájékoztatás mellett segítséget is nyújtanak a medvékkel kapcsolatos problémák esetén</t>
-  </si>
-  <si>
-    <t>Kijárási korlátozás a medvéknél is?</t>
-  </si>
-  <si>
-    <t>Medveles területére tévedtek, olcsón – mindössze az ijedtséggel – megúszták</t>
-  </si>
-  <si>
-    <t>Csíkpálfalva utcáin rohanó nagytestű medvét filmeztek le kedd éjjel.</t>
-  </si>
-  <si>
-    <t>Egyre gyakrabban tűnnek fel és pusztítanak a medvék Csíkszereda környékén: kedd éjszaka Csíkpálfalván merészkedett lakott területre egy termetes egyed, majd szerda éjjel Taplocán egy kutya, Szépívezen pedig négy juh vált a nagyvadak áldozatává.</t>
-  </si>
-  <si>
-    <t>Jelenleg hét medve okoz folyamatosan károkat Székelyudvarhelyen, de ennél jóval több példányt lehet megszámolni, amelyeket láttak már a település határain belül. A vadásztársulat áthelyezési engedélyt kért két nagyvadra, amelyek közül az egyiket már el is szállították.</t>
-  </si>
-  <si>
-    <t>Napi szinten bejárt Székelyszentmihályra az elmúlt hetekben egy hím medve, amely már több háztartáshoz is betört, ahol nyulakat és szárnyasokat pusztított el. A vadászok kilövési engedélyért folyamodnak az ügyben.</t>
-  </si>
-  <si>
-    <t>Medvét láttak szombaton reggel hét óra előtt nem sokkal Csíkmindszenten, sőt videóra is vették, amint egy kis hezitálás után a nagyvad úgy dönt, átszalad az úton egy gépjármű előtt.</t>
-  </si>
-  <si>
-    <t>Súlyosan megsebesített egy medve egy tehénpásztort péntek este Csíkbánkfalva mellett. A 28 éves kászoni férfi egész testét zúzódások borítják, kar- és combcsonttörései miatt pedig műtétre szorul.</t>
-  </si>
-  <si>
-    <t>Nem kapott még választ a legfelsőbb bíróság melletti ügyészségre a környezetvédelmi minisztérium ellen június közepén benyújtott bűnügyi keresetére a Zetelaki Területtulajdonosi Társulás, amelyben a prevenciós célú medvekilövési kvóta hiánya ellen emeltek panaszt.</t>
-  </si>
-  <si>
-    <t>Nem engedélyezte a környezetvédelmi minisztérium a Székelyszentmihályon garázdálkodó medve ártalmatlanítását, amit azzal indokolnak, hogy kimerült a kilövési kvóta, ezért újabbat kell jóváhagyni. Addig viszont szünet van.</t>
-  </si>
-  <si>
-    <t>A lakosság tájékoztatása és segítése céljából hozták létre a Hargita Megyei Nagyragadozó Platform nevű Facebook-oldalt, amelyen főként a medvékkel kapcsolatosan osztanak meg fontos tudnivalókat a témában jártas szakemberek, akik szükség esetén gyakorlati segítséget is nyújtanak.</t>
-  </si>
-  <si>
-    <t>Elhanyagolható mennyiségű medvekárt jelentettek ősszel a vadásztársulatoknál, ami annak köszönhető, hogy bőséges gyümölcs- és makktermés volt az erdőkben, így ott maradtak a nagyvadak. Ez persze csak egy szerencsés évnek mondható, hiszen egyre csak gyarapodik az állomány.</t>
-  </si>
-  <si>
-    <t>Tragédiába is torkolhatott volna az eset, de egy hatalmas ijedtséggel megúszták vasárnap délelőtti sétájukat azok a marosvásárhelyi turisták, akik a Borzont melletti Baricz kanyar közelében egy medveles udvarára tévedtek. Mások okulására is elmesélték a történteket.</t>
-  </si>
-  <si>
-    <t>['Csíkdánfalva', 'Csíkpálfalva']</t>
-  </si>
-  <si>
-    <t>['Csíkszereda', 'Csíkpálfalva']</t>
-  </si>
-  <si>
-    <t>Székelyszentmihály</t>
-  </si>
-  <si>
-    <t>['Csíkdánfalva', 'Csíkbánkfalva']</t>
+    <t>Balánbányai udvarba hatolt be egy medve</t>
+  </si>
+  <si>
+    <t>Medvetámadás: tizenötezer euró kártérítést ítéltek meg a sérültnek</t>
+  </si>
+  <si>
+    <t>Nem fűznek sok reményt a medvegondok rendezéséhez</t>
+  </si>
+  <si>
+    <t>Egyszer s mindenkorra rendezné a medvekérdést környezetvédelmi miniszterként Tánczos Barna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mégsem szállítják el a medvéket Tusnádfürdőről</t>
+  </si>
+  <si>
+    <t>Nyugi van medvefronton, és még ezután jöhet a „füvezés”</t>
+  </si>
+  <si>
+    <t>A háza udvarán ólálkodó medve miatt riasztotta a hatóságokat Balánbányán egy nő szombaton nem sokkal éjfél után – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>A Hargita Megyei Törvényszék másodfokú határozata a korábbinál nagyobb összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy Tusnádfürdőn történt medvetámadás sérültje számára. Ez az ítélet sem végleges, további fellebbezésre van lehetőség.</t>
+  </si>
+  <si>
+    <t>Mindeddig nem ért el eredményt a környezetvédelmi minisztérium ellen benyújtott bűnügyi kereset ügyében a Zetelaki Területtulajdonosi Társulás. Az ügyészség nemrég elutasította a prevenciós célú medvekilövési kvóta jóváhagyásának az elmulasztása miatt kezdeményezett keresetet.</t>
+  </si>
+  <si>
+    <t>Egyebek mellett a medveprobléma rendezését, a kártérítések kifizetését és a törvénytelen fakitermelés visszaszorítását tartja fő feladatainak Tánczos Barna frissen kinevezett környezetvédelmi miniszter, aki emellett szenátori munkáját is ellátja a továbbiakban.</t>
+  </si>
+  <si>
+    <t>Nem fogják be és nem szállítják el Magyarországra a Tusnádfürdőre rendszeresen bejáró medvéket, ahogy ezt tavaly szerették volna. Szigorú eljárásoknak, karanténkötelezettségnek kellene megfelelni, amely a gyakorlatban nehezen alkalmazható – tudtuk meg.</t>
+  </si>
+  <si>
+    <t>Noha a medvék jó része nem alszik téli álmot, az utóbbi időszakban mégsem okoztak károkat. Volt elég élelem az erdőn, sőt még most is van, illetve a szakember szerint tavasszal a nagyvadak rendszerint zöld füvet legelnek, megtisztítva a szervezetüket a tél lejártával.</t>
+  </si>
+  <si>
+    <t>Balánbánya</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő</t>
   </si>
   <si>
     <t>Zetelaka</t>
   </si>
   <si>
-    <t>Cintos</t>
-  </si>
-  <si>
-    <t>['Marosvásárhely', 'Borzond', 'Borzont']</t>
-  </si>
-  <si>
-    <t>Csíkpálfalva</t>
-  </si>
-  <si>
-    <t>['Csíkszereda', 'Csíkpálfalva','Csíkszépvíz']</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely</t>
-  </si>
-  <si>
-    <t>Csíkmindszent</t>
-  </si>
-  <si>
-    <t>Csíkbánkfalva</t>
-  </si>
-  <si>
-    <t>Borzont</t>
+    <t>['Haraly', 'Tusnádfürdő']</t>
   </si>
 </sst>
 </file>
@@ -538,16 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="2" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,13 +531,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +548,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,13 +565,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +576,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,89 +593,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_locs_curated.xlsx
+++ b/data/szekelyhon_locs_curated.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611F894-DCDB-4EA9-82BB-3FF8EC5D182D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122BCE76-8C83-4C62-ADBB-FA348E2B0E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15855" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>title</t>
   </si>
@@ -34,52 +34,250 @@
     <t>actual_locs</t>
   </si>
   <si>
-    <t>Balánbányai udvarba hatolt be egy medve</t>
-  </si>
-  <si>
-    <t>Medvetámadás: tizenötezer euró kártérítést ítéltek meg a sérültnek</t>
-  </si>
-  <si>
-    <t>Nem fűznek sok reményt a medvegondok rendezéséhez</t>
-  </si>
-  <si>
-    <t>Egyszer s mindenkorra rendezné a medvekérdést környezetvédelmi miniszterként Tánczos Barna</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mégsem szállítják el a medvéket Tusnádfürdőről</t>
-  </si>
-  <si>
-    <t>Nyugi van medvefronton, és még ezután jöhet a „füvezés”</t>
-  </si>
-  <si>
-    <t>A háza udvarán ólálkodó medve miatt riasztotta a hatóságokat Balánbányán egy nő szombaton nem sokkal éjfél után – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség.</t>
-  </si>
-  <si>
-    <t>A Hargita Megyei Törvényszék másodfokú határozata a korábbinál nagyobb összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy Tusnádfürdőn történt medvetámadás sérültje számára. Ez az ítélet sem végleges, további fellebbezésre van lehetőség.</t>
-  </si>
-  <si>
-    <t>Mindeddig nem ért el eredményt a környezetvédelmi minisztérium ellen benyújtott bűnügyi kereset ügyében a Zetelaki Területtulajdonosi Társulás. Az ügyészség nemrég elutasította a prevenciós célú medvekilövési kvóta jóváhagyásának az elmulasztása miatt kezdeményezett keresetet.</t>
-  </si>
-  <si>
-    <t>Egyebek mellett a medveprobléma rendezését, a kártérítések kifizetését és a törvénytelen fakitermelés visszaszorítását tartja fő feladatainak Tánczos Barna frissen kinevezett környezetvédelmi miniszter, aki emellett szenátori munkáját is ellátja a továbbiakban.</t>
-  </si>
-  <si>
-    <t>Nem fogják be és nem szállítják el Magyarországra a Tusnádfürdőre rendszeresen bejáró medvéket, ahogy ezt tavaly szerették volna. Szigorú eljárásoknak, karanténkötelezettségnek kellene megfelelni, amely a gyakorlatban nehezen alkalmazható – tudtuk meg.</t>
-  </si>
-  <si>
-    <t>Noha a medvék jó része nem alszik téli álmot, az utóbbi időszakban mégsem okoztak károkat. Volt elég élelem az erdőn, sőt még most is van, illetve a szakember szerint tavasszal a nagyvadak rendszerint zöld füvet legelnek, megtisztítva a szervezetüket a tél lejártával.</t>
-  </si>
-  <si>
-    <t>Balánbánya</t>
+    <t>Medvét láttak Csíkszentkirályon – ez volt az év első ilyen riasztása</t>
+  </si>
+  <si>
+    <t>Csíkszentkirály utcáin ólálkodó medvére hívta fel a figyelmet egy nő péntek reggel – tájékoztat az Agerpres hírügynökség, a Hargita Megyei Csendőr-felügyelőség közlése alapján. Idén ez volt az első bejelentés a nagyvad lakott területen való jelenlétéről.</t>
+  </si>
+  <si>
+    <t>['Csíkszentmihály', 'Csíkszentkirály']</t>
+  </si>
+  <si>
+    <t>Miért jár a medve iskolába? – Tánczos Barna a Nézőpontban</t>
+  </si>
+  <si>
+    <t>Az egyik legösszetettebb ágazat, a környezetvédelem, vízgazdálkodás és az erdészet irányítását látja el a tavaly decemberi választások nyomán létrejött koalíciós kormányban Tánczos Barna. Románia környezetvédelmi minisztere a Nézőpont vendége.</t>
+  </si>
+  <si>
+    <t>['Haraly', 'Nyomát']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medvebocsokat szedtek ki egy barlangból, videóra vették, rendőrségi ügy lett belőle</t>
+  </si>
+  <si>
+    <t>Eljárás indult négy Neamț megyei férfi ellen, miután a Facebookon nyilvánosságra került egy videó, amelyen látható, amint a férfiak négy medvebocsot szednek ki egy barlangból. A Hargita és Neamț megyei rendőrség együtt folytat nyomozást az ügyben.</t>
+  </si>
+  <si>
+    <t>Nem találták meg a medvebocsokat</t>
+  </si>
+  <si>
+    <t>Folytatódik a hatósági vizsgálat annak a négy Neamț megyei férfinak az ügyében, akikről múlt héten került nyilvánosságra egy videó, amint négy medvebocsot szedtek ki egy barlangból. A vadállatokat nem találták meg.</t>
+  </si>
+  <si>
+    <t>Mennyi medve van hat év semmittevés után?</t>
+  </si>
+  <si>
+    <t>Erre a kérdésre keresi első lépésben a választ a környezetvédelmi minisztérium. Tánczos Barna tárcavezető hétfőn Háromszéken a medvekérdésben érintett szereplőkkel is találkozott: állatvédőkkel, gazdákkal, vadászokkal és önkormányzati képviselőkkel.</t>
+  </si>
+  <si>
+    <t>Keresd</t>
+  </si>
+  <si>
+    <t>Elköltöztetik a Vásárhelyen sétáló medvét</t>
+  </si>
+  <si>
+    <t>Marosvásárhely két erdőszéli utcájában több alkalommal bukkant fel egy nagytermetű medve, ezért a polgármesteri hivatal és a prefektúra kéri a vad elköltöztetését.</t>
+  </si>
+  <si>
+    <t>Marosvásárhely</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Újra aktívak a medvék, de még békén hagyják a háziállatokat</t>
+  </si>
+  <si>
+    <t>Noha Hargita megyében már aktívak a medvék, a vadásztársulatok szerint még nem fognak háziállatokra támadni, hiszen ebben az időszakban lárvákat és a fák nedvét fogyasztják, esetleg friss füvet esznek. A populáció túlszaporodása miatt azonban senki nem tudja megjósolni, hogy mekkora károk várhatók áprilistól.</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklósi bevásárlóközpontnál járt egy medve</t>
+  </si>
+  <si>
+    <t>Egy kis termetű medve felbukkanása miatt riasztották kedd reggel Gyergyószentmiklóson a rendőröket, csendőröket és tűzoltókat, a lakókat pedig a Ro-Alert rendszeren figyelmeztették. A település szélén lévő bevásárlóközpontnál élelmet kereső vadállatot sikerült a városon kívüli területre elűzni.</t>
+  </si>
+  <si>
+    <t>['Kerelő', 'Gyergyószentmiklós', 'Keresd']</t>
+  </si>
+  <si>
+    <t>Ismét medvét láttak Gyergyószentmiklóson</t>
+  </si>
+  <si>
+    <t>Medve jelenlétére hívták fel a hatóságok figyelmét kedden, az esti órákban Gyergyószentmiklóson – tájékoztat a Hargita megyei tűzoltóság. Ez már a második medve-észlelés egy nap alatt a településen.</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós</t>
+  </si>
+  <si>
+    <t>Nem tágít Gyergyószentmiklósról a medve</t>
+  </si>
+  <si>
+    <t>Háromszor is riasztották a hatóságokat az elmúlt 12 órában medveészlelés miatt Gyergyószentmiklóson.</t>
+  </si>
+  <si>
+    <t>Medve kószált Ditró központjában, a hatóságok nem kaptak bejelentést</t>
+  </si>
+  <si>
+    <t>Gyergyóditró központjában bukkant fel egy kis termetű medve vasárnap fényes nappal, a vadállatot a közelből többen is videóra vették. A 112-es sürgősségi hívószámon nem jelentették az esetet.</t>
+  </si>
+  <si>
+    <t>Ditró</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medvés éjszaka Gyergyóditróban</t>
+  </si>
+  <si>
+    <t>Medvét láttak vasárnap éjjel Gyergyóditróban, ezért riasztották a hatóságokat a 112-n. Rendőrök, csendőrök és egy SMURD-egység sietett a telefonon jelentett helyszínre, egy ház udvarára, ahol még ott volt a kisebb termetű medve. A lakókat is figyelmeztették a veszélyre a Ro-Alert rendszeren keresztül.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gyergyóditróból is elszállítanák a kukázó medvebocsot</t>
+  </si>
+  <si>
+    <t>Az illetékes minisztérium jóváhagyására várnak Gyergyóditróban, hogy a vadászok elkábíthassák és elszállíthassák a napok óta a faluban tanyázó medvét. Ha a település meg is szabadul tőle, valószínűleg máshol meg fog jelenni.</t>
+  </si>
+  <si>
+    <t>Visszavitték az erdőbe a Gyergyóditróban kószáló medvét</t>
+  </si>
+  <si>
+    <t>Elkábították és visszavitték az erdőbe azt a medvét, amely élelem után kutatva behatolt szombaton a gyergyóditrói iskola udvarára – közölte hétfőn Birtalan István, a Gyergyószentmiklósi Vadász és Sporthorgász Egyesület vezetője. A medve jelenlétét korábban a falu több pontján is jelezték.</t>
+  </si>
+  <si>
+    <t>['Gyergyószentmiklós', 'Vadasd']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medvebocson segítettek a hegyimentők</t>
+  </si>
+  <si>
+    <t>Hangos nyüszítése hívta fel a figyelmet egy magára hagyott, nagyjából két hónapos medvebocsra, amelyet hétvégén a Hargita Megyei Hegyi- és Barlangimentő Közszolgálat szentegyházi munkatársai hoztak ki a Vargyas-szorosból.</t>
+  </si>
+  <si>
+    <t>['Magura', 'Szentegyháza']</t>
+  </si>
+  <si>
+    <t>Focipályára fészkelte be magát bocsaival együtt egy medve Marosfőn</t>
+  </si>
+  <si>
+    <t>Egy anyamedve Marosfőn, a település közepén, egy focipálya alatt ásott magának barlangot és ott nevelte két bocsát. Miután ezt felfedezték és engedélyt kaptak erre, a vadászok elkábították és emberi településektől távolra költöztették az állatokat.</t>
+  </si>
+  <si>
+    <t>Marosfő</t>
+  </si>
+  <si>
+    <t>Medvék rohangáltak Csíkkozmáson</t>
+  </si>
+  <si>
+    <t>Fényes nappal Csíkkozmás utcáin rohanó medvékről tettek közzé egy videófelvételt a Facebook közösségi oldalon hétfőn.</t>
+  </si>
+  <si>
+    <t>Medveveszélyre figyelmeztetnek Sugásfürdőn</t>
+  </si>
+  <si>
+    <t>A Sepsiszentgyörgy és Sugásfürdő közötti útvonalon az elmúlt időszakban több alkalommal is medvéket láttak – figyelmeztet a megyeszékhely önkormányzata.</t>
+  </si>
+  <si>
+    <t>Sepsiszentgyörgy</t>
+  </si>
+  <si>
+    <t>Elszállítják a Sugásfürdő közelében bóklászó medvecsaládot</t>
+  </si>
+  <si>
+    <t>Sepsiszentgyörgy és a közelben lévő Sugásfürdő közötti útvonalon több alkalommal is felbukkant az elmúlt napokban egy medvecsalád. Antal Árpád polgármester csütörtökön sajtótájékoztatón kifejtette, egyeztetett Tánczos Barna környezetvédelmi miniszterrel, a medvéket elszállítják.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huszonegy juhot és bárányt marcangoltak szét a medvék Kecsetben</t>
+  </si>
+  <si>
+    <t>Összesen huszonegy juhot és bárányt sebesített meg, illetve pusztított el egy anyamedve és bocsa hétfőre virradóan Kecsetben, a faluközponthoz közeli akolban, több mint hétezer lejes kárt okozva a gazdának. Az elmúlt két hétben már több helyre is betörtek a nagyvadak a településen.</t>
+  </si>
+  <si>
+    <t>Templom mellett járt, majd elhagyott épületben próbált elrejtőzni a medve</t>
+  </si>
+  <si>
+    <t>Egy kisebb termetű medve felbukkanása miatt riasztották a csendőröket és a mentőket kedd délután Tusnádfürdőn, a lakókat pedig vészhelyzeti üzeneten figyelmeztették a veszélyre.</t>
   </si>
   <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
-    <t>Zetelaka</t>
-  </si>
-  <si>
-    <t>['Haraly', 'Tusnádfürdő']</t>
+    <t>Medvét láttak a csíksomlyói sípályánál</t>
+  </si>
+  <si>
+    <t>Egy medve bukkant fel a csíksomlyói sípálya közelében – értesítették a hatóságokat csütörtök este.</t>
+  </si>
+  <si>
+    <t>['Csíkszereda', 'Csíksomlyó']</t>
+  </si>
+  <si>
+    <t>Medvék jelenlétére figyelmeztetnek Csíksomlyón és környékén</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedve jelenlétére figyelmeztet a Somlyó-hegyen és környékén szombat reggeli felhívásában a csíkszeredai városháza.</t>
+  </si>
+  <si>
+    <t>Belesétált a csapdába a Marosvásárhelyen időnként felbukkanó medve</t>
+  </si>
+  <si>
+    <t>A neki felállított csapdába sétált szombatra virradóra az a hím medve, amelynek jelenlétét  idén több, mint egy tucatszor jelentették a marosvásárhelyi lakók. A nagyvadat Ratosnya környékére szállítják.</t>
+  </si>
+  <si>
+    <t>['Ratosnya', 'Marosvásárhely']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megkeserítik a mindennapokat: ismét több medve bukkan fel Tusnádfürdő utcáin</t>
+  </si>
+  <si>
+    <t>Az idő felmelegedésével újból előtérbe került a tusnádfürdőiek évek óta fennálló problémája: ismét több medve bukkan fel rendszeresen, akár napközben is a településen, az egyik fiatalabb egyed gyakorlatilag ott él. A fürdővárosban feszült a hangulat, az önkormányzat újabb ötletekkel lépne fel a jelenség ellen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Több mint negyven jószágot pusztítottak el a medvék egy éjszaka alatt Farkaslaka községben</t>
+  </si>
+  <si>
+    <t>Több mint negyven bárányt és juhot pusztított el, illetve sebesített meg halálosan egy anyamedve bocsaival hétfőre virradóra Nyikómalomfalván, mintegy 12 ezer lejes kárt okozva a helyi közbirtokosságnak. A környezetvédelmi minisztérium segítségét kéri a farkaslaki polgármester a helyzet megoldásáért.</t>
+  </si>
+  <si>
+    <t>Farkaslaka</t>
+  </si>
+  <si>
+    <t>Az Olt partján kóborló medve „ébresztette” a sepsiszentgyörgyieket</t>
+  </si>
+  <si>
+    <t>Medvét láttak az Olt folyó partján – erre vonatkozó, a Ro-Alert vészhelyzeti figyelmeztető rendszeren az okostelefonokra küldött riasztással „ébresztette” szerda reggel hat órakor sepsiszentgyörgyieket a Kovászna megyei katasztrófavédelmi felügyelőség.</t>
+  </si>
+  <si>
+    <t>['Sepsiszentgyörgy', 'Kovászna']</t>
+  </si>
+  <si>
+    <t>Autó gázolt el egy medvét, elpusztult a vadállat</t>
+  </si>
+  <si>
+    <t>Elütöttek egy medvét vasárnap hajnalban a háromszéki Mikóújfalu közelében. A Kovászna Megyei Környezetőrséget a rendőrség értesítette, a helyszínen megállapították, hogy a medve elpusztult az ütközés következtében.</t>
+  </si>
+  <si>
+    <t>['Mikóújfalu', 'Kovászna']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sokasodnak a medvekárok Farkaslaka községben, késlekedik a kilövési engedély</t>
+  </si>
+  <si>
+    <t>Noha egyre több medve garázdálkodik, illetve az általuk okozott káresetek száma is fokozódik Farkaslaka községben, mégsem ártalmatlaníthatják a problémás egyedeket az érintett vadásztársulatok. A központilag jóváhagyandó kilövési engedélyre ugyanis még várni kell.</t>
+  </si>
+  <si>
+    <t>Csíkszentkirály</t>
+  </si>
+  <si>
+    <t>Vargyas</t>
+  </si>
+  <si>
+    <t>Csíkkozmás</t>
+  </si>
+  <si>
+    <t>Kecset</t>
+  </si>
+  <si>
+    <t>Csíksomlyó</t>
+  </si>
+  <si>
+    <t>Ratosnya</t>
+  </si>
+  <si>
+    <t>Mikóújfalu</t>
   </si>
 </sst>
 </file>
@@ -97,10 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,10 +333,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -203,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,27 +436,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,24 +470,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,22 +646,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="5" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="90.6796875" customWidth="1"/>
+    <col min="3" max="3" width="90.6796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -506,97 +672,467 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="59" x14ac:dyDescent="0.75">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>